--- a/Equipe102.xlsx
+++ b/Equipe102.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27421"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27601"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE4CC6AC-2570-42B8-A132-D29B4E50880C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="454" documentId="13_ncr:1_{DBEB54B7-8C9A-40C2-9BEC-806A0CAE1E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3618203C-20EF-4F85-834E-B1EDCCA49486}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sommaire" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="174">
   <si>
     <t>Fonct.</t>
   </si>
@@ -107,6 +107,60 @@
     <t>NewQuestionComponent a bcp logique pour component, ModifiedQuestionComponent.saveQuestion, plusieurs (plusieurs) pages (admin, game, newgame,) ont beaucoup trop de logique, devraient utiliser des services. Les fonctions is-valid-game devraient être gérées par un service.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">game-page-questions.component.ts: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">vous utilisez à la fois addEventListener, et @HostListener ? Une autre solution aurait été d'utiliser document:keydown.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>admin.service.ts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>exportGameAsJson</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> utilise document.createElement, créee un élément sur le DOM au lieu d'utiliser des components angular, et ne le supprime jamais.
+La gestion des événements WS ne devrait pas se trouver directement dans server.ts  : ayez une classe dédiée à cette gestion</t>
+    </r>
+  </si>
+  <si>
     <t>1.2 Arborescence</t>
   </si>
   <si>
@@ -130,6 +184,25 @@
   </si>
   <si>
     <t>NewQuestionComponent et ModifiedQuestionComponent. Les pages admin, game et newgame, nottamment, en ont bcp trop</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">room.ts(serveur) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>a beaucoup trop de responsabilité. le plus problématique est sûrement la validation des réponses et le timer. (timer devrait être une classe séparée, la validation aussi)</t>
+    </r>
   </si>
   <si>
     <t>2.2 Attributs</t>
@@ -143,6 +216,85 @@
     <t>game-page-questions.component : answerGivenIsCorrect, answerStatusEnum answerStatus, sont inutilisés</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>game-page-questions.componnent.ts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>answerGivenIsCorrect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> est inutilisée. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">question-bank.component.ts </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> selectedRowIds </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">inutilisés. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>room.ts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> a 24 attributs, c'est beaucoup trop.</t>
+    </r>
+  </si>
+  <si>
     <t>2.3 Accessibilité</t>
   </si>
   <si>
@@ -151,6 +303,121 @@
   </si>
   <si>
     <t>game-page-questions.component aurait du avoir beaucoup moins de @Input, et utiliser des getters pour son HTML. Dans la même classe, selectedChoices aurait pu être private,</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">game-page-questions.component.ts: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">le nombre d'@Input est toujours très élevé. Voir si possible de regrouper ceux qui peuvent l'être (par exemple, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>question</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> et </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>choices</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">). selectedChoices aurait toujours pu être private. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">create-qgame-page.component.ts: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">modifiedQuestion, games, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">question-bank.component.ts </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">questionToAdd, defaultDisplayedColumns </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">room.ts </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> allAnswersForQuestion, globalAnswerIndex, lockedAnswers, assertedAnswers, firstAnswerForBonus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>auraient du être private.</t>
+    </r>
   </si>
   <si>
     <t>2.4 Couplage</t>
@@ -183,6 +450,154 @@
     <t xml:space="preserve">addQuestion de NewQuestionComponent, gestion des selectedChoices dans toggleAnswer de gamepagequestion, adminpage: getValidGameTitle, importGamesFromFile, removeUnwantedFields   fonction fléchée validateQuestionChoicesImport </t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">handler-new-question.service.ts: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>addQuestion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> est un bon progrès, mais 3 éléments auraient pu être modifiés: suppression de la ligne 36, transfert des lignes 23 à 31 dans une méthode séparée. La ligne 23 pourrait se lire: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">return this.addQuestionToQuiz(newQuestion, addToBank) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">histogram.component.ts: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Lignes 63 à 69 auraient du être une fct séparée, (Et lui passer en paramètres </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">this.questionsGame[0] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">par souci de lisibilité) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>admin.service.ts:144</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> else inutile sie ligne 144 à l'extérieur du else if. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>games.services.ts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">setupWebSocketEvents </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">plusieurs écouteurs d'événements (onGameLaunch, par exemple) auraient du être dans des fonctions séparées. (Les fonctions lambda appellent des méthodes) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>server.ts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> Même chose que </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>games.services.ts</t>
+    </r>
+  </si>
+  <si>
     <t>3.2 Paramètres</t>
   </si>
   <si>
@@ -208,6 +623,93 @@
     <t>plusieurs return await, subscribes qui ne sont pas sauvegardés et unsubscribed</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>admin.service.ts:87</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">, le </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> sera toujours à vrai car on vérifie que la promesse existe, et non la valeur de retour de la promesse! </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>game-page-questions.component.ts:58</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> le removeEventListener ne retire pas l'événement créé, car chaque fois que </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>bind</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> est appelé, une nouvelle fonction est créée. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">game.service.ts, match.service.ts et questions.service.ts </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>ont encore des return await</t>
+    </r>
+  </si>
+  <si>
     <t>4.3 Message d'erreur</t>
   </si>
   <si>
@@ -229,6 +731,59 @@
     <t>MESSAGE_NOT_FOUND se répète + bcp de DURATION, MAX_DURATION, MIN_DURATION. Devrait être regroupées, et nommées plus significativement.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>game-validation.service.ts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> minDuration et maxDuration sont encore là, mais en minuscules. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>question-validation-service.ts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Max_points et Min_points</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> devraient être des constantes globales. Regroupez vos constantes.</t>
+    </r>
+  </si>
+  <si>
     <t>5.2 Environnement</t>
   </si>
   <si>
@@ -247,6 +802,9 @@
     <t>utilisation de baseDix, ONE_SECOND_IN_MS</t>
   </si>
   <si>
+    <t>BASE_TEN, si c'est en majuscules et en anglais, ce n'est pas moins un problème. ONE_SECOND_IN_MS est encore présente</t>
+  </si>
+  <si>
     <t>6. Expressions booléennes</t>
   </si>
   <si>
@@ -259,12 +817,34 @@
     <t>game-page.component.ts:112</t>
   </si>
   <si>
+    <t>histogram.component.ts:93, new-game-page.component.ts:54</t>
+  </si>
+  <si>
     <t>6.2 Logique négative</t>
   </si>
   <si>
     <t>L'expression booléenne évite la logique négative. (Exemple d'erreur:  if( !notFound(…) )</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">attention à </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>chat.service.ts:43</t>
+    </r>
+  </si>
+  <si>
     <t>6.3 Ternaire</t>
   </si>
   <si>
@@ -272,6 +852,154 @@
   </si>
   <si>
     <t>choiceComponent.ngOnInit(), GameService:55, createQgamePageComponent:124</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>choice.component.ts:ngOnInit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> encore une fois, un ternaire aurait été efficace. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">game.service.ts </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>totalQuestionDurationValue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> aurait pu être un ternaire. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>host-game-page.component.ts:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">currentQuestionArray() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">aurait pu être un ternaire. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>new-game-page.component.ts:54</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> vous auriez pu retourner le résultat de la condition! </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>:64 :75</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">, suggestion aurait pu être un ternaire (et une méthode séparée) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>results-view.component.ts</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> sortDataSources, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">le if else aurait pu être un ternaire. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>game-validation.service.ts:37</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> On es tout.e.s passé.e.s par là ( game-page-questions.component.ts:109/110 aussi)</t>
+    </r>
   </si>
   <si>
     <t>6.4 Prédicats</t>
@@ -281,6 +1009,60 @@
 L'expression booléenne utilise un ou des prédicats pour simplifier une condition complexe.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">game-validation.service.ts </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>isValidGame</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">, les 3 ifs dans la for auraient pu être regroupés en un prédicat. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>question-validation.service:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">validateQuestion() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>: les 3 ifs imbriqués auraient pu être un (ou plusieurs) prédicats.</t>
+    </r>
+  </si>
+  <si>
     <t>7. Qualité générale</t>
   </si>
   <si>
@@ -300,6 +1082,9 @@
     <t>Le commentaire est pertinent. (Pas de code mort commenté)</t>
   </si>
   <si>
+    <t>question-bank.component.html:48. game.service.ts:44</t>
+  </si>
+  <si>
     <t>7.3 Enum</t>
   </si>
   <si>
@@ -325,6 +1110,45 @@
   </si>
   <si>
     <t>moveQuestionUp et Down, méthode addQuestion de NewQuestionComponent</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>new-game-page.component.ts:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">snackbarHiddenGame: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">duplication dans les lignes 65 et 67. Else inutile. De plus, duplication du début des méthodes </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>snackbarHiddenGame et snackbarDeletedGame
+Envoyez une interface dédiée au lieu d'envoyer [[string,Player]] et la convertir en Map à 3 reprises dans game.service avec les mêmes 3 lignes à chaque fois (186 à 188)
+Trop d'appels à getRoom() dans server.ts : pourquoi ne pas obtenir 1 seule référence à utiliser dans la fonction au lieu de faire 7-8 appels dans 1 bloc de code (lignes 79 à 87)</t>
+    </r>
   </si>
   <si>
     <t>7.6 ESLint</t>
@@ -337,6 +1161,127 @@
     <t>nombre magique à baseDix</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> Liste des Eslint-disable dont la justification est refusée: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">game-page-questions.component.ts; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">toggleAnswer, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>-1 est un nombre magique.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> chat.service.ts:40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> Vous auriez pu créer une interface à passer en paramètre. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>chat.service.ts:69</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> la constante NOT_FOUND (qui a disparu) aurait été pertinente pour éviter le nombre magique. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">handler-new-question.service.ts:17 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> aurait pu être pertinent comme disable, justification invalide. Possibilité de gagner 0.25 (donc 2 points) si vous êtes en mesure de fournir la justification.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>server.ts:163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> (aucune justification) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">room.ts:32 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> la constante NOT_FOUND aurait été pertinente ici aussi. Commentaire général: sélectionnez toujours quelle règle d'ESlint vous désactivez, n'y allez pas avec un "bazooka"</t>
+    </r>
+  </si>
+  <si>
     <t>7.7 Complexité</t>
   </si>
   <si>
@@ -344,6 +1289,128 @@
   </si>
   <si>
     <t>adminPageComponent:171 else inutile pourrait être simplifié de bcp, NewQuestionComponent.addQuestion,  GamePageQuestionComponent.buttonDetect, NewGamePageComponent.isTheGameModified, QuestionValidationService.validatequestion =&gt; if(true) return true;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>room.ts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> (serveur): </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>verifyAnswers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> a une complexité cyclomatique de 25. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">histogram.component.ts: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>calculateAnswerCounts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> a un if dans un if dans une for dans un if dans une for. Duplication également présente dans les débuts de </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">launchGameTest </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">et </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>launchGame</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> server.ts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">socket.on('leave-room') </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> a un if dans un else dans un else dans un if. </t>
+    </r>
   </si>
   <si>
     <t>7.7 Nomenclature des variables, classes et méthodes</t>
@@ -354,6 +1421,52 @@
 Les noms ne sont pas troncés excessivement. (Exemple: utiliser background au lieu de seulement bg).</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">histogram.component.ts:56 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">array </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">question-validation.service.ts: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>validatePoints</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>, pourquoi y a t'il des constantes locales en majuscules?</t>
+    </r>
+  </si>
+  <si>
     <t>7.8 Performance</t>
   </si>
   <si>
@@ -379,6 +1492,9 @@
   </si>
   <si>
     <t xml:space="preserve">Le projet ne contient pas de branches mortes (stale branch). Une branche est considérée comme morte si elle n'a pas de commit pendant plus de 3 semaines. </t>
+  </si>
+  <si>
+    <t>Supprimez la branche feature/testingMatchServiceServer pour le sprint 3</t>
   </si>
   <si>
     <t>8.4 Gitlab</t>
@@ -389,12 +1505,18 @@
 Les Issues sont mis à jour tout au long du projet.</t>
   </si>
   <si>
+    <t>Les issues du sprint 1 sont encore ouvertes (et celles du sprint 2 aussi). Quelques MRs brisent le pipeline et le code et sont quand même mergées.</t>
+  </si>
+  <si>
     <t>8.5 Fichiers</t>
   </si>
   <si>
     <t>Le projet contient uniquement les fichiers nécessaires. (Exemple: pas de dossier node_modules ou coverage).</t>
   </si>
   <si>
+    <t>game-test.component</t>
+  </si>
+  <si>
     <t>Total QA sprint</t>
   </si>
   <si>
@@ -470,16 +1592,61 @@
     <t>Joindre une partie</t>
   </si>
   <si>
+    <t>"Organisateur" a pu rejoindre, plusieurs "Olivier" étaient présents dans la salle d'attente. (Visible pour autres joueurs, mais pas organisateur).</t>
+  </si>
+  <si>
     <t>Vue de jeu de l'organisateur</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>AdminService.prepareGameForImport()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> n'a pas testé le cas où </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>isValidGame</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> est à false, ce qui aurait permis de détecter une erreur de logique</t>
+    </r>
+  </si>
+  <si>
     <t>Partie de jeu-questionnaire (QCM)</t>
   </si>
   <si>
+    <t>Les "refresh" ne sont pas gérés.</t>
+  </si>
+  <si>
     <t>Vue des résultats</t>
   </si>
   <si>
     <t>Clavardage</t>
+  </si>
+  <si>
+    <t>Attention au format des heures</t>
   </si>
   <si>
     <t>Erreur de build  / déploiement erroné</t>
@@ -513,7 +1680,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -635,6 +1802,12 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -1484,7 +2657,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="271">
+  <cellXfs count="275">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1744,9 +2917,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1754,9 +2924,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1802,9 +2969,6 @@
     <xf numFmtId="1" fontId="0" fillId="21" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="21" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="39" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2118,6 +3282,123 @@
     <xf numFmtId="0" fontId="14" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="11" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="8" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="9" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2142,105 +3423,9 @@
     <xf numFmtId="0" fontId="12" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="8" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="9" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2276,13 +3461,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="40 % - Accent1" xfId="4" builtinId="31"/>
-    <cellStyle name="40 % - Accent2" xfId="5" builtinId="35"/>
-    <cellStyle name="40 % - Accent3" xfId="6" builtinId="39"/>
+    <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
+    <cellStyle name="40% - Accent2" xfId="5" builtinId="35"/>
+    <cellStyle name="40% - Accent3" xfId="6" builtinId="39"/>
+    <cellStyle name="Explanatory Text" xfId="2" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
-    <cellStyle name="Sortie" xfId="3" builtinId="21"/>
-    <cellStyle name="Texte explicatif" xfId="2" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="3" builtinId="21"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2666,7 +3851,7 @@
   <dimension ref="A3:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2681,114 +3866,115 @@
   <sheetData>
     <row r="3" spans="1:7" ht="30">
       <c r="A3" s="40"/>
-      <c r="B3" s="126" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="126" t="s">
+      <c r="B3" s="123" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="127" t="s">
+      <c r="E3" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="128" t="s">
+      <c r="F3" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="129" t="s">
+      <c r="G3" s="126" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="108">
+      <c r="B4" s="106">
         <f>(Fonctionnalités!E15)</f>
         <v>0.64875000000000005</v>
       </c>
-      <c r="C4" s="108">
+      <c r="C4" s="106">
         <f>'Assurance Qualité'!C59</f>
         <v>0.67749999999999999</v>
       </c>
-      <c r="D4" s="108">
+      <c r="D4" s="106">
         <f>B4*0.6+C4*0.4 - 0.1*E4</f>
         <v>0.66025</v>
       </c>
-      <c r="E4" s="109"/>
-      <c r="F4" s="110">
+      <c r="E4" s="107"/>
+      <c r="F4" s="108">
         <v>20</v>
       </c>
-      <c r="G4" s="111">
+      <c r="G4" s="222">
+        <f t="shared" ref="G4:G7" si="0">D4*F4</f>
+        <v>13.205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="109" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="110">
+        <f>(Fonctionnalités!E27)</f>
+        <v>0.90687499999999999</v>
+      </c>
+      <c r="C5" s="110">
+        <f>'Assurance Qualité'!F59</f>
+        <v>0.66650000000000009</v>
+      </c>
+      <c r="D5" s="110">
+        <f t="shared" ref="D5:D6" si="1">B5*0.6+C5*0.4 - 0.1*E5</f>
+        <v>0.81072500000000003</v>
+      </c>
+      <c r="E5" s="111"/>
+      <c r="F5" s="112">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="112" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="113">
-        <f>(Fonctionnalités!E27)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="113">
-        <f>'Assurance Qualité'!F59</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="113">
-        <f t="shared" ref="D5:D6" si="0">B5*0.6+C5*0.4 - 0.1*E5</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="114"/>
-      <c r="F5" s="115">
+      <c r="G5" s="113">
+        <f t="shared" si="0"/>
+        <v>20.268125000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="114" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="115">
+        <f>(Fonctionnalités!E40)</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="115">
+        <f>'Assurance Qualité'!I59</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="115">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="116"/>
+      <c r="F6" s="117">
         <v>25</v>
       </c>
-      <c r="G5" s="116">
-        <f t="shared" ref="G5:G7" si="1">D5*F5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="118">
-        <f>(Fonctionnalités!E40)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="118">
-        <f>'Assurance Qualité'!I59</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="118">
+      <c r="G6" s="118">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="120">
-        <v>25</v>
-      </c>
-      <c r="G6" s="121">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="122"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="123">
-        <v>0</v>
-      </c>
-      <c r="E7" s="124"/>
-      <c r="F7" s="122">
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="120">
+        <v>0</v>
+      </c>
+      <c r="E7" s="121"/>
+      <c r="F7" s="119">
         <v>5</v>
       </c>
-      <c r="G7" s="125">
-        <f t="shared" si="1"/>
+      <c r="G7" s="122">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2802,8 +3988,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:Q59"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="B47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2813,7 +3999,7 @@
     <col min="3" max="4" width="10.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="34.140625" style="10" customWidth="1"/>
     <col min="6" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="45.140625" style="10" customWidth="1"/>
     <col min="9" max="10" width="10.7109375" customWidth="1"/>
     <col min="11" max="11" width="42.42578125" style="10" customWidth="1"/>
     <col min="12" max="13" width="12.7109375" customWidth="1"/>
@@ -2822,36 +4008,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A2" s="219" t="s">
+      <c r="A2" s="255" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="219"/>
-      <c r="C2" s="219"/>
-      <c r="D2" s="219"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="219"/>
-      <c r="G2" s="219"/>
-      <c r="H2" s="219"/>
-      <c r="I2" s="219"/>
-      <c r="J2" s="219"/>
-      <c r="K2" s="219"/>
+      <c r="B2" s="255"/>
+      <c r="C2" s="255"/>
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
+      <c r="H2" s="255"/>
+      <c r="I2" s="255"/>
+      <c r="J2" s="255"/>
+      <c r="K2" s="255"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="4" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A4" s="220" t="s">
+      <c r="A4" s="256" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="220"/>
-      <c r="C4" s="220"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="220"/>
-      <c r="F4" s="220"/>
-      <c r="G4" s="220"/>
-      <c r="H4" s="220"/>
-      <c r="I4" s="220"/>
-      <c r="J4" s="220"/>
-      <c r="K4" s="220"/>
+      <c r="B4" s="256"/>
+      <c r="C4" s="256"/>
+      <c r="D4" s="256"/>
+      <c r="E4" s="256"/>
+      <c r="F4" s="256"/>
+      <c r="G4" s="256"/>
+      <c r="H4" s="256"/>
+      <c r="I4" s="256"/>
+      <c r="J4" s="256"/>
+      <c r="K4" s="256"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
@@ -2871,36 +4057,36 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A6" s="237" t="s">
+      <c r="A6" s="248" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="224" t="s">
+      <c r="B6" s="260" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="239" t="s">
+      <c r="C6" s="250" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="240"/>
-      <c r="E6" s="240"/>
-      <c r="F6" s="241" t="s">
+      <c r="D6" s="251"/>
+      <c r="E6" s="251"/>
+      <c r="F6" s="252" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="242"/>
-      <c r="H6" s="243"/>
-      <c r="I6" s="221" t="s">
+      <c r="G6" s="253"/>
+      <c r="H6" s="254"/>
+      <c r="I6" s="257" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="222"/>
-      <c r="K6" s="223"/>
+      <c r="J6" s="258"/>
+      <c r="K6" s="259"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="235"/>
-      <c r="O6" s="236"/>
-      <c r="P6" s="236"/>
+      <c r="N6" s="246"/>
+      <c r="O6" s="247"/>
+      <c r="P6" s="247"/>
     </row>
     <row r="7" spans="1:17" ht="18.75">
-      <c r="A7" s="238"/>
-      <c r="B7" s="225"/>
+      <c r="A7" s="249"/>
+      <c r="B7" s="261"/>
       <c r="C7" s="14" t="s">
         <v>14</v>
       </c>
@@ -2936,24 +4122,24 @@
       <c r="Q7" s="40"/>
     </row>
     <row r="8" spans="1:17" ht="18.75">
-      <c r="A8" s="234" t="s">
+      <c r="A8" s="230" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="234"/>
-      <c r="C8" s="227" t="s">
+      <c r="B8" s="230"/>
+      <c r="C8" s="223" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="228"/>
+      <c r="D8" s="224"/>
       <c r="E8" s="46"/>
-      <c r="F8" s="227" t="s">
+      <c r="F8" s="223" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="228"/>
+      <c r="G8" s="224"/>
       <c r="H8" s="46"/>
-      <c r="I8" s="227" t="s">
+      <c r="I8" s="223" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="228"/>
+      <c r="J8" s="224"/>
       <c r="K8" s="46"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -2962,36 +4148,38 @@
       <c r="P8" s="40"/>
       <c r="Q8" s="40"/>
     </row>
-    <row r="9" spans="1:17" ht="137.25">
+    <row r="9" spans="1:17" ht="167.25">
       <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="100">
+      <c r="C9" s="98">
         <v>0.25</v>
       </c>
-      <c r="D9" s="98">
+      <c r="D9" s="96">
         <v>6</v>
       </c>
-      <c r="E9" s="101" t="s">
+      <c r="E9" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="102">
-        <v>0</v>
-      </c>
-      <c r="G9" s="99">
+      <c r="F9" s="100">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="97">
         <v>6</v>
       </c>
-      <c r="H9" s="103"/>
-      <c r="I9" s="104">
-        <v>0</v>
-      </c>
-      <c r="J9" s="105">
+      <c r="H9" s="218" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="102">
+        <v>0</v>
+      </c>
+      <c r="J9" s="103">
         <v>6</v>
       </c>
-      <c r="K9" s="106"/>
+      <c r="K9" s="104"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="40"/>
@@ -3001,34 +4189,36 @@
     </row>
     <row r="10" spans="1:17" ht="30.75">
       <c r="A10" s="23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="100">
+        <v>23</v>
+      </c>
+      <c r="C10" s="98">
         <v>0.75</v>
       </c>
-      <c r="D10" s="98">
+      <c r="D10" s="96">
         <v>2</v>
       </c>
-      <c r="E10" s="101" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="102">
-        <v>0</v>
-      </c>
-      <c r="G10" s="99">
+      <c r="E10" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="100">
+        <v>0.75</v>
+      </c>
+      <c r="G10" s="97">
         <v>2</v>
       </c>
-      <c r="H10" s="103"/>
-      <c r="I10" s="104">
-        <v>0</v>
-      </c>
-      <c r="J10" s="105">
+      <c r="H10" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="102">
+        <v>0</v>
+      </c>
+      <c r="J10" s="103">
         <v>2</v>
       </c>
-      <c r="K10" s="106"/>
+      <c r="K10" s="104"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="40"/>
@@ -3037,10 +4227,10 @@
       <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A11" s="229" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="230"/>
+      <c r="A11" s="225" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="226"/>
       <c r="C11" s="47">
         <f>SUMPRODUCT(C6:C10,D6:D10)</f>
         <v>3</v>
@@ -3052,7 +4242,7 @@
       <c r="E11" s="49"/>
       <c r="F11" s="50">
         <f>SUMPRODUCT(F6:F10,G6:G10)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G11" s="51">
         <f>SUM(G6:G10)</f>
@@ -3076,24 +4266,24 @@
       <c r="Q11" s="44"/>
     </row>
     <row r="12" spans="1:17" s="12" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A12" s="234" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="234"/>
-      <c r="C12" s="227" t="s">
+      <c r="A12" s="230" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="230"/>
+      <c r="C12" s="223" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="228"/>
+      <c r="D12" s="224"/>
       <c r="E12" s="46"/>
-      <c r="F12" s="227" t="s">
+      <c r="F12" s="223" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="228"/>
+      <c r="G12" s="224"/>
       <c r="H12" s="46"/>
-      <c r="I12" s="227" t="s">
+      <c r="I12" s="223" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="228"/>
+      <c r="J12" s="224"/>
       <c r="K12" s="46"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -3102,12 +4292,12 @@
       <c r="P12" s="43"/>
       <c r="Q12" s="43"/>
     </row>
-    <row r="13" spans="1:17" ht="60.75">
+    <row r="13" spans="1:17" ht="76.5">
       <c r="A13" s="29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="79">
         <v>0.5</v>
@@ -3116,33 +4306,35 @@
         <v>3</v>
       </c>
       <c r="E13" s="81" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F13" s="89">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G13" s="90">
         <f>D13</f>
         <v>3</v>
       </c>
-      <c r="H13" s="91"/>
-      <c r="I13" s="92">
-        <v>0</v>
-      </c>
-      <c r="J13" s="93">
+      <c r="H13" s="220" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="91">
+        <v>0</v>
+      </c>
+      <c r="J13" s="92">
         <f>G13</f>
         <v>3</v>
       </c>
-      <c r="K13" s="94"/>
+      <c r="K13" s="93"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:17" ht="60.75">
       <c r="A14" s="23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" s="83">
         <v>0</v>
@@ -3151,20 +4343,22 @@
         <v>2</v>
       </c>
       <c r="E14" s="85" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F14" s="86">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G14" s="90">
         <f t="shared" ref="G14:G17" si="0">D14</f>
         <v>2</v>
       </c>
-      <c r="H14" s="88"/>
+      <c r="H14" s="216" t="s">
+        <v>34</v>
+      </c>
       <c r="I14" s="76">
         <v>0</v>
       </c>
-      <c r="J14" s="93">
+      <c r="J14" s="92">
         <f t="shared" ref="J14:J17" si="1">G14</f>
         <v>2</v>
       </c>
@@ -3172,12 +4366,12 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:17" ht="76.5">
+    <row r="15" spans="1:17" ht="167.25">
       <c r="A15" s="23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C15" s="83">
         <v>0</v>
@@ -3186,7 +4380,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="85" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F15" s="86">
         <v>0</v>
@@ -3195,11 +4389,13 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H15" s="88"/>
+      <c r="H15" s="216" t="s">
+        <v>38</v>
+      </c>
       <c r="I15" s="76">
         <v>0</v>
       </c>
-      <c r="J15" s="93">
+      <c r="J15" s="92">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -3209,10 +4405,10 @@
     </row>
     <row r="16" spans="1:17" ht="30.75">
       <c r="A16" s="23" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C16" s="83">
         <v>0.75</v>
@@ -3221,10 +4417,10 @@
         <v>4</v>
       </c>
       <c r="E16" s="85" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F16" s="86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="90">
         <f t="shared" si="0"/>
@@ -3234,7 +4430,7 @@
       <c r="I16" s="76">
         <v>0</v>
       </c>
-      <c r="J16" s="93">
+      <c r="J16" s="92">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -3244,10 +4440,10 @@
     </row>
     <row r="17" spans="1:17" ht="30.75">
       <c r="A17" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C17" s="83">
         <v>1</v>
@@ -3257,7 +4453,7 @@
       </c>
       <c r="E17" s="85"/>
       <c r="F17" s="86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="90">
         <f t="shared" si="0"/>
@@ -3267,7 +4463,7 @@
       <c r="I17" s="76">
         <v>0</v>
       </c>
-      <c r="J17" s="93">
+      <c r="J17" s="92">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -3276,10 +4472,10 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A18" s="229" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="230"/>
+      <c r="A18" s="225" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="226"/>
       <c r="C18" s="47">
         <f>SUMPRODUCT(C13:C17,D13:D17)</f>
         <v>8.5</v>
@@ -3291,7 +4487,7 @@
       <c r="E18" s="49"/>
       <c r="F18" s="50">
         <f>SUMPRODUCT(F13:F17,G13:G17)</f>
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="G18" s="51">
         <f>SUM(G13:G17)</f>
@@ -3315,34 +4511,34 @@
       <c r="Q18" s="44"/>
     </row>
     <row r="19" spans="1:17" s="43" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A19" s="226" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="226"/>
-      <c r="C19" s="227" t="s">
+      <c r="A19" s="262" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="262"/>
+      <c r="C19" s="223" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="228"/>
+      <c r="D19" s="224"/>
       <c r="E19" s="46"/>
-      <c r="F19" s="227" t="s">
+      <c r="F19" s="223" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="228"/>
+      <c r="G19" s="224"/>
       <c r="H19" s="46"/>
-      <c r="I19" s="227" t="s">
+      <c r="I19" s="223" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="228"/>
+      <c r="J19" s="224"/>
       <c r="K19" s="46"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="1:17" ht="137.25">
+    <row r="20" spans="1:17" ht="244.5">
       <c r="A20" s="23" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C20" s="83">
         <v>0</v>
@@ -3351,15 +4547,17 @@
         <v>3</v>
       </c>
       <c r="E20" s="85" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F20" s="86">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G20" s="87">
         <v>3</v>
       </c>
-      <c r="H20" s="88"/>
+      <c r="H20" s="217" t="s">
+        <v>48</v>
+      </c>
       <c r="I20" s="76">
         <v>0</v>
       </c>
@@ -3372,10 +4570,10 @@
     </row>
     <row r="21" spans="1:17" ht="30.75">
       <c r="A21" s="23" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C21" s="83">
         <v>1</v>
@@ -3385,7 +4583,7 @@
       </c>
       <c r="E21" s="85"/>
       <c r="F21" s="86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="87">
         <v>3</v>
@@ -3402,10 +4600,10 @@
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A22" s="231" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="232"/>
+      <c r="A22" s="263" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="245"/>
       <c r="C22" s="57">
         <f>SUMPRODUCT(C20:C21,D20:D21)</f>
         <v>3</v>
@@ -3417,7 +4615,7 @@
       <c r="E22" s="59"/>
       <c r="F22" s="60">
         <f>SUMPRODUCT(F20:F21,G20:G21)</f>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="G22" s="61">
         <f>SUM(G20:G21)</f>
@@ -3437,36 +4635,36 @@
       <c r="M22" s="56"/>
     </row>
     <row r="23" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A23" s="212" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="212"/>
-      <c r="C23" s="227" t="s">
+      <c r="A23" s="209" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="209"/>
+      <c r="C23" s="223" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="228"/>
+      <c r="D23" s="224"/>
       <c r="E23" s="46"/>
-      <c r="F23" s="227" t="s">
+      <c r="F23" s="223" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="228"/>
+      <c r="G23" s="224"/>
       <c r="H23" s="46"/>
-      <c r="I23" s="227" t="s">
+      <c r="I23" s="223" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="228"/>
+      <c r="J23" s="224"/>
       <c r="K23" s="46"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:17" ht="30.75">
       <c r="A24" s="42" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="97">
+        <v>53</v>
+      </c>
+      <c r="C24" s="95">
         <v>1</v>
       </c>
       <c r="D24" s="25">
@@ -3474,7 +4672,7 @@
       </c>
       <c r="E24" s="26"/>
       <c r="F24" s="82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="27">
         <v>1</v>
@@ -3490,12 +4688,12 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
-    <row r="25" spans="1:17" ht="45.75">
+    <row r="25" spans="1:17" ht="213">
       <c r="A25" s="23" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C25" s="83">
         <v>0</v>
@@ -3504,15 +4702,17 @@
         <v>2</v>
       </c>
       <c r="E25" s="85" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F25" s="86">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G25" s="87">
         <v>2</v>
       </c>
-      <c r="H25" s="88"/>
+      <c r="H25" s="216" t="s">
+        <v>57</v>
+      </c>
       <c r="I25" s="76">
         <v>0</v>
       </c>
@@ -3525,10 +4725,10 @@
     </row>
     <row r="26" spans="1:17" ht="30.75">
       <c r="A26" s="23" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C26" s="83">
         <v>0</v>
@@ -3537,10 +4737,10 @@
         <v>1</v>
       </c>
       <c r="E26" s="85" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F26" s="86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="87">
         <v>1</v>
@@ -3557,10 +4757,10 @@
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A27" s="233" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="232"/>
+      <c r="A27" s="244" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="245"/>
       <c r="C27" s="47">
         <f>SUMPRODUCT(C24:C26,D24:D26)</f>
         <v>1</v>
@@ -3572,7 +4772,7 @@
       <c r="E27" s="49"/>
       <c r="F27" s="60">
         <f>SUMPRODUCT(F24:F26,G24:G26)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G27" s="61">
         <f>SUM(G24:G26)</f>
@@ -3592,34 +4792,34 @@
       <c r="M27" s="56"/>
     </row>
     <row r="28" spans="1:17" ht="21" customHeight="1">
-      <c r="A28" s="226" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="226"/>
-      <c r="C28" s="227">
+      <c r="A28" s="262" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="262"/>
+      <c r="C28" s="223">
         <v>1</v>
       </c>
-      <c r="D28" s="228"/>
+      <c r="D28" s="224"/>
       <c r="E28" s="46"/>
-      <c r="F28" s="227" t="s">
+      <c r="F28" s="223" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="228"/>
+      <c r="G28" s="224"/>
       <c r="H28" s="66"/>
-      <c r="I28" s="227" t="s">
+      <c r="I28" s="223" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="228"/>
+      <c r="J28" s="224"/>
       <c r="K28" s="46"/>
       <c r="L28" s="9"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="1:17" ht="76.5">
+    <row r="29" spans="1:17" ht="121.5">
       <c r="A29" s="31" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C29" s="79">
         <v>0.5</v>
@@ -3628,33 +4828,35 @@
         <v>2</v>
       </c>
       <c r="E29" s="81" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F29" s="89">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G29" s="90">
         <f>D29</f>
         <v>2</v>
       </c>
-      <c r="H29" s="95"/>
-      <c r="I29" s="92">
-        <v>0</v>
-      </c>
-      <c r="J29" s="93">
+      <c r="H29" s="219" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" s="91">
+        <v>0</v>
+      </c>
+      <c r="J29" s="92">
         <f>D29</f>
         <v>2</v>
       </c>
-      <c r="K29" s="94"/>
+      <c r="K29" s="93"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="24" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C30" s="83">
         <v>0.75</v>
@@ -3663,20 +4865,20 @@
         <v>2</v>
       </c>
       <c r="E30" s="85" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F30" s="86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="90">
         <f t="shared" ref="G30:G31" si="2">D30</f>
         <v>2</v>
       </c>
-      <c r="H30" s="96"/>
+      <c r="H30" s="94"/>
       <c r="I30" s="76">
         <v>0</v>
       </c>
-      <c r="J30" s="93">
+      <c r="J30" s="92">
         <f t="shared" ref="J30:J31" si="3">D30</f>
         <v>2</v>
       </c>
@@ -3684,12 +4886,12 @@
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
     </row>
-    <row r="31" spans="1:17" ht="30.75">
+    <row r="31" spans="1:17" ht="45.75">
       <c r="A31" s="24" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C31" s="83">
         <v>0.5</v>
@@ -3698,20 +4900,22 @@
         <v>2</v>
       </c>
       <c r="E31" s="85" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F31" s="86">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G31" s="90">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H31" s="96"/>
+      <c r="H31" s="94" t="s">
+        <v>72</v>
+      </c>
       <c r="I31" s="76">
         <v>0</v>
       </c>
-      <c r="J31" s="93">
+      <c r="J31" s="92">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -3720,10 +4924,10 @@
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A32" s="229" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="230"/>
+      <c r="A32" s="225" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="226"/>
       <c r="C32" s="47">
         <f>SUMPRODUCT(C29:C31,D29:D31)</f>
         <v>3.5</v>
@@ -3735,7 +4939,7 @@
       <c r="E32" s="49"/>
       <c r="F32" s="50">
         <f>SUMPRODUCT(F29:F31,G29:G31)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G32" s="51">
         <f>SUM(G29:G31)</f>
@@ -3755,19 +4959,19 @@
       <c r="M32" s="56"/>
     </row>
     <row r="33" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A33" s="234" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="234"/>
-      <c r="C33" s="227" t="s">
+      <c r="A33" s="230" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="230"/>
+      <c r="C33" s="223" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="228"/>
+      <c r="D33" s="224"/>
       <c r="E33" s="46"/>
-      <c r="F33" s="227" t="s">
+      <c r="F33" s="223" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="228"/>
+      <c r="G33" s="224"/>
       <c r="H33" s="46"/>
       <c r="I33" s="68" t="s">
         <v>17</v>
@@ -3779,10 +4983,10 @@
     </row>
     <row r="34" spans="1:13" ht="30.75">
       <c r="A34" s="29" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C34" s="79">
         <v>0.75</v>
@@ -3791,31 +4995,33 @@
         <v>2</v>
       </c>
       <c r="E34" s="81" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F34" s="89">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G34" s="90">
         <v>2</v>
       </c>
-      <c r="H34" s="91"/>
-      <c r="I34" s="92">
-        <v>0</v>
-      </c>
-      <c r="J34" s="93">
+      <c r="H34" s="220" t="s">
+        <v>77</v>
+      </c>
+      <c r="I34" s="91">
+        <v>0</v>
+      </c>
+      <c r="J34" s="92">
         <v>2</v>
       </c>
-      <c r="K34" s="94"/>
+      <c r="K34" s="93"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="23" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C35" s="83">
         <v>1</v>
@@ -3825,12 +5031,14 @@
       </c>
       <c r="E35" s="85"/>
       <c r="F35" s="86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" s="87">
         <v>2</v>
       </c>
-      <c r="H35" s="88"/>
+      <c r="H35" s="217" t="s">
+        <v>80</v>
+      </c>
       <c r="I35" s="76">
         <v>0</v>
       </c>
@@ -3841,12 +5049,12 @@
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
     </row>
-    <row r="36" spans="1:13" ht="45.75">
+    <row r="36" spans="1:13" ht="213">
       <c r="A36" s="23" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C36" s="83">
         <v>0.25</v>
@@ -3855,15 +5063,17 @@
         <v>3</v>
       </c>
       <c r="E36" s="85" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F36" s="86">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G36" s="87">
         <v>3</v>
       </c>
-      <c r="H36" s="88"/>
+      <c r="H36" s="217" t="s">
+        <v>84</v>
+      </c>
       <c r="I36" s="76">
         <v>0</v>
       </c>
@@ -3874,12 +5084,12 @@
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
     </row>
-    <row r="37" spans="1:13" ht="45.75">
+    <row r="37" spans="1:13" ht="91.5">
       <c r="A37" s="23" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C37" s="83">
         <v>1</v>
@@ -3889,12 +5099,14 @@
       </c>
       <c r="E37" s="85"/>
       <c r="F37" s="86">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G37" s="87">
         <v>3</v>
       </c>
-      <c r="H37" s="88"/>
+      <c r="H37" s="216" t="s">
+        <v>87</v>
+      </c>
       <c r="I37" s="76">
         <v>0</v>
       </c>
@@ -3906,10 +5118,10 @@
       <c r="M37" s="5"/>
     </row>
     <row r="38" spans="1:13" s="44" customFormat="1" ht="15.75">
-      <c r="A38" s="229" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="230"/>
+      <c r="A38" s="225" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="226"/>
       <c r="C38" s="69">
         <f>SUMPRODUCT(C34:C37,D34:D37)</f>
         <v>7.25</v>
@@ -3921,7 +5133,7 @@
       <c r="E38" s="49"/>
       <c r="F38" s="70">
         <f>SUMPRODUCT(F34:F37,G34:G37)</f>
-        <v>0</v>
+        <v>6.15</v>
       </c>
       <c r="G38" s="51">
         <f>SUM(G34:G37)</f>
@@ -3942,33 +5154,33 @@
     </row>
     <row r="39" spans="1:13" ht="18.75" customHeight="1">
       <c r="A39" s="45" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B39" s="45"/>
-      <c r="C39" s="227" t="s">
+      <c r="C39" s="223" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="228"/>
+      <c r="D39" s="224"/>
       <c r="E39" s="66"/>
-      <c r="F39" s="227" t="s">
+      <c r="F39" s="223" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="228"/>
+      <c r="G39" s="224"/>
       <c r="H39" s="46"/>
-      <c r="I39" s="227" t="s">
+      <c r="I39" s="223" t="s">
         <v>17</v>
       </c>
-      <c r="J39" s="228"/>
+      <c r="J39" s="224"/>
       <c r="K39" s="46"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
     </row>
     <row r="40" spans="1:13" ht="60.75">
       <c r="A40" s="23" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C40" s="83">
         <v>0.75</v>
@@ -3977,10 +5189,10 @@
         <v>2</v>
       </c>
       <c r="E40" s="85" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F40" s="86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" s="87">
         <f>D40</f>
@@ -3998,12 +5210,12 @@
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" ht="45.75">
       <c r="A41" s="23" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C41" s="83">
         <v>1</v>
@@ -4013,13 +5225,15 @@
       </c>
       <c r="E41" s="85"/>
       <c r="F41" s="86">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G41" s="87">
         <f t="shared" ref="G41:G48" si="4">D41</f>
         <v>2</v>
       </c>
-      <c r="H41" s="88"/>
+      <c r="H41" s="216" t="s">
+        <v>94</v>
+      </c>
       <c r="I41" s="76">
         <v>0</v>
       </c>
@@ -4033,10 +5247,10 @@
     </row>
     <row r="42" spans="1:13" ht="60.75">
       <c r="A42" s="23" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C42" s="83">
         <v>0.5</v>
@@ -4045,10 +5259,10 @@
         <v>2</v>
       </c>
       <c r="E42" s="85" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F42" s="86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" s="87">
         <f t="shared" si="4"/>
@@ -4067,10 +5281,10 @@
     </row>
     <row r="43" spans="1:13" ht="30.75">
       <c r="A43" s="23" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C43" s="83">
         <v>0.5</v>
@@ -4079,10 +5293,10 @@
         <v>4</v>
       </c>
       <c r="E43" s="85" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="F43" s="86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" s="87">
         <f t="shared" si="4"/>
@@ -4100,12 +5314,12 @@
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
     </row>
-    <row r="44" spans="1:13" ht="45.75">
+    <row r="44" spans="1:13" ht="198">
       <c r="A44" s="23" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C44" s="83">
         <v>0.75</v>
@@ -4114,16 +5328,18 @@
         <v>6</v>
       </c>
       <c r="E44" s="85" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="F44" s="86">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G44" s="87">
         <f>D44</f>
         <v>6</v>
       </c>
-      <c r="H44" s="88"/>
+      <c r="H44" s="216" t="s">
+        <v>104</v>
+      </c>
       <c r="I44" s="76">
         <v>0</v>
       </c>
@@ -4135,12 +5351,12 @@
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
     </row>
-    <row r="45" spans="1:13" ht="45.75">
+    <row r="45" spans="1:13" ht="244.5">
       <c r="A45" s="23" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="C45" s="83">
         <v>1</v>
@@ -4149,16 +5365,18 @@
         <v>8</v>
       </c>
       <c r="E45" s="85" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="F45" s="86">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G45" s="87">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="H45" s="88"/>
+      <c r="H45" s="217" t="s">
+        <v>108</v>
+      </c>
       <c r="I45" s="76">
         <v>0</v>
       </c>
@@ -4170,12 +5388,12 @@
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
     </row>
-    <row r="46" spans="1:13" ht="152.25">
+    <row r="46" spans="1:13" ht="183">
       <c r="A46" s="23" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C46" s="83">
         <v>0.25</v>
@@ -4184,16 +5402,18 @@
         <v>6</v>
       </c>
       <c r="E46" s="85" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="F46" s="86">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G46" s="87">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="H46" s="88"/>
+      <c r="H46" s="217" t="s">
+        <v>112</v>
+      </c>
       <c r="I46" s="76">
         <v>0</v>
       </c>
@@ -4207,10 +5427,10 @@
     </row>
     <row r="47" spans="1:13" ht="76.5">
       <c r="A47" s="23" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C47" s="83">
         <v>1</v>
@@ -4220,13 +5440,15 @@
       </c>
       <c r="E47" s="85"/>
       <c r="F47" s="86">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G47" s="87">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="H47" s="88"/>
+      <c r="H47" s="216" t="s">
+        <v>115</v>
+      </c>
       <c r="I47" s="76">
         <v>0</v>
       </c>
@@ -4240,10 +5462,10 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="13" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="C48" s="83">
         <v>1</v>
@@ -4253,7 +5475,7 @@
       </c>
       <c r="E48" s="85"/>
       <c r="F48" s="86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" s="87">
         <f t="shared" si="4"/>
@@ -4272,10 +5494,10 @@
       <c r="M48" s="5"/>
     </row>
     <row r="49" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A49" s="229" t="s">
-        <v>24</v>
-      </c>
-      <c r="B49" s="230"/>
+      <c r="A49" s="225" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="226"/>
       <c r="C49" s="71">
         <f>SUMPRODUCT(C40:C48,D40:D48)</f>
         <v>30.5</v>
@@ -4287,7 +5509,7 @@
       <c r="E49" s="59"/>
       <c r="F49" s="70">
         <f>SUMPRODUCT(F40:F48,G40:G48)</f>
-        <v>0</v>
+        <v>24.5</v>
       </c>
       <c r="G49" s="51">
         <f>SUM(G40:G48)</f>
@@ -4311,34 +5533,34 @@
       <c r="Q49" s="44"/>
     </row>
     <row r="50" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A50" s="234" t="s">
-        <v>101</v>
-      </c>
-      <c r="B50" s="234"/>
-      <c r="C50" s="227" t="s">
+      <c r="A50" s="230" t="s">
+        <v>118</v>
+      </c>
+      <c r="B50" s="230"/>
+      <c r="C50" s="223" t="s">
         <v>17</v>
       </c>
-      <c r="D50" s="228"/>
+      <c r="D50" s="224"/>
       <c r="E50" s="46"/>
-      <c r="F50" s="227" t="s">
+      <c r="F50" s="223" t="s">
         <v>17</v>
       </c>
-      <c r="G50" s="228"/>
+      <c r="G50" s="224"/>
       <c r="H50" s="46"/>
-      <c r="I50" s="227" t="s">
+      <c r="I50" s="223" t="s">
         <v>17</v>
       </c>
-      <c r="J50" s="228"/>
+      <c r="J50" s="224"/>
       <c r="K50" s="46"/>
       <c r="L50" s="8"/>
       <c r="M50" s="4"/>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="29" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C51" s="79">
         <v>1</v>
@@ -4348,7 +5570,7 @@
       </c>
       <c r="E51" s="81"/>
       <c r="F51" s="82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" s="27">
         <v>2</v>
@@ -4366,10 +5588,10 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="23" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="C52" s="83">
         <v>1</v>
@@ -4379,7 +5601,7 @@
       </c>
       <c r="E52" s="85"/>
       <c r="F52" s="86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" s="87">
         <v>2</v>
@@ -4397,10 +5619,10 @@
     </row>
     <row r="53" spans="1:17" ht="30.75">
       <c r="A53" s="23" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="C53" s="83">
         <v>1</v>
@@ -4410,12 +5632,14 @@
       </c>
       <c r="E53" s="85"/>
       <c r="F53" s="86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" s="87">
         <v>1</v>
       </c>
-      <c r="H53" s="88"/>
+      <c r="H53" s="88" t="s">
+        <v>125</v>
+      </c>
       <c r="I53" s="76">
         <v>0</v>
       </c>
@@ -4428,10 +5652,10 @@
     </row>
     <row r="54" spans="1:17" ht="60.75">
       <c r="A54" s="23" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="C54" s="83">
         <v>1</v>
@@ -4441,12 +5665,14 @@
       </c>
       <c r="E54" s="85"/>
       <c r="F54" s="86">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G54" s="87">
         <v>4</v>
       </c>
-      <c r="H54" s="88"/>
+      <c r="H54" s="88" t="s">
+        <v>128</v>
+      </c>
       <c r="I54" s="76">
         <v>0</v>
       </c>
@@ -4459,10 +5685,10 @@
     </row>
     <row r="55" spans="1:17" ht="30.75">
       <c r="A55" s="23" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="C55" s="83">
         <v>1</v>
@@ -4472,12 +5698,14 @@
       </c>
       <c r="E55" s="85"/>
       <c r="F55" s="86">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G55" s="87">
         <v>2</v>
       </c>
-      <c r="H55" s="88"/>
+      <c r="H55" s="88" t="s">
+        <v>131</v>
+      </c>
       <c r="I55" s="76">
         <v>0</v>
       </c>
@@ -4489,10 +5717,10 @@
       <c r="M55" s="5"/>
     </row>
     <row r="56" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A56" s="229" t="s">
-        <v>24</v>
-      </c>
-      <c r="B56" s="230"/>
+      <c r="A56" s="225" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" s="226"/>
       <c r="C56" s="57">
         <f>SUMPRODUCT(C51:C55,D51:D55)</f>
         <v>11</v>
@@ -4504,7 +5732,7 @@
       <c r="E56" s="59"/>
       <c r="F56" s="60">
         <f>SUMPRODUCT(F51:F55,G51:G55)</f>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="G56" s="61">
         <f>SUM(G51:G55)</f>
@@ -4524,27 +5752,27 @@
       <c r="M56" s="56"/>
     </row>
     <row r="57" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A57" s="257" t="s">
+      <c r="A57" s="227" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="258"/>
-      <c r="C57" s="258"/>
-      <c r="D57" s="258"/>
-      <c r="E57" s="258"/>
-      <c r="F57" s="258"/>
-      <c r="G57" s="258"/>
-      <c r="H57" s="258"/>
-      <c r="I57" s="258"/>
-      <c r="J57" s="258"/>
-      <c r="K57" s="259"/>
+      <c r="B57" s="228"/>
+      <c r="C57" s="228"/>
+      <c r="D57" s="228"/>
+      <c r="E57" s="228"/>
+      <c r="F57" s="228"/>
+      <c r="G57" s="228"/>
+      <c r="H57" s="228"/>
+      <c r="I57" s="228"/>
+      <c r="J57" s="228"/>
+      <c r="K57" s="229"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
     </row>
     <row r="58" spans="1:17">
-      <c r="A58" s="244" t="s">
-        <v>112</v>
-      </c>
-      <c r="B58" s="245"/>
+      <c r="A58" s="231" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" s="232"/>
       <c r="C58" s="34">
         <f>C11+C18+C22+C27+C32+C38+C49+C56</f>
         <v>67.75</v>
@@ -4556,14 +5784,14 @@
       <c r="E58" s="26"/>
       <c r="F58" s="35">
         <f>F11+F18+F22+F27+F32+F38+F49+F56</f>
-        <v>0</v>
+        <v>66.650000000000006</v>
       </c>
       <c r="G58" s="27">
         <f>G11+G18+G22+G27+G32+G38+G49+G56</f>
         <v>100</v>
       </c>
       <c r="H58" s="28"/>
-      <c r="I58" s="211">
+      <c r="I58" s="208">
         <f>I11+I18+I22+I27+I32+I38+I49+I56</f>
         <v>0</v>
       </c>
@@ -4576,52 +5804,49 @@
       <c r="M58" s="5"/>
     </row>
     <row r="59" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A59" s="246" t="s">
-        <v>113</v>
-      </c>
-      <c r="B59" s="247"/>
-      <c r="C59" s="248">
+      <c r="A59" s="233" t="s">
+        <v>133</v>
+      </c>
+      <c r="B59" s="234"/>
+      <c r="C59" s="235">
         <f>C58/D58</f>
         <v>0.67749999999999999</v>
       </c>
-      <c r="D59" s="249"/>
-      <c r="E59" s="250"/>
-      <c r="F59" s="251">
+      <c r="D59" s="236"/>
+      <c r="E59" s="237"/>
+      <c r="F59" s="238">
         <f>F58/G58</f>
-        <v>0</v>
-      </c>
-      <c r="G59" s="252"/>
-      <c r="H59" s="253"/>
-      <c r="I59" s="254">
+        <v>0.66650000000000009</v>
+      </c>
+      <c r="G59" s="239"/>
+      <c r="H59" s="240"/>
+      <c r="I59" s="241">
         <f>I58/J58</f>
         <v>0</v>
       </c>
-      <c r="J59" s="255"/>
-      <c r="K59" s="256"/>
+      <c r="J59" s="242"/>
+      <c r="K59" s="243"/>
       <c r="L59" s="72"/>
       <c r="M59" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:K57"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="I59:K59"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="N6:P6"/>
@@ -4638,22 +5863,25 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="I28:J28"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="I59:K59"/>
+    <mergeCell ref="A57:K57"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A56:B56"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L18 L22 L27 L32 L38 L49 L11 C9:C10 F9:F10 I9:I10 C24:C26 F24:F26 I24:I26 C34:C37 F34:F37 I34:I37 C51:C55 F51:F55 I51:I55 I13:I17 F13:F17 C13:C17 I20:I21 F20:F21 C20:C21 I29:I31 F29:F31 C29:C31 I40:I48 F40:F48 C40:C48" xr:uid="{4A0D4DC8-F6F9-4765-AB49-E4E0ACDB1361}">
@@ -4675,8 +5903,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4691,15 +5919,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18.75">
-      <c r="A2" s="260" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="260"/>
-      <c r="C2" s="260"/>
-      <c r="D2" s="260"/>
-      <c r="E2" s="260"/>
-      <c r="F2" s="260"/>
-      <c r="G2" s="260"/>
+      <c r="A2" s="264" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="264"/>
+      <c r="C2" s="264"/>
+      <c r="D2" s="264"/>
+      <c r="E2" s="264"/>
+      <c r="F2" s="264"/>
+      <c r="G2" s="264"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="38"/>
@@ -4712,7 +5940,7 @@
     </row>
     <row r="4" spans="1:7" ht="18.75">
       <c r="A4" s="36" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -4723,708 +5951,752 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1"/>
     <row r="6" spans="1:7" ht="23.25">
-      <c r="A6" s="264" t="s">
+      <c r="A6" s="268" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="265"/>
-      <c r="C6" s="265"/>
-      <c r="D6" s="265"/>
-      <c r="E6" s="265"/>
-      <c r="F6" s="265"/>
-      <c r="G6" s="266"/>
+      <c r="B6" s="269"/>
+      <c r="C6" s="269"/>
+      <c r="D6" s="269"/>
+      <c r="E6" s="269"/>
+      <c r="F6" s="269"/>
+      <c r="G6" s="270"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="130" t="s">
-        <v>116</v>
-      </c>
-      <c r="B7" s="131" t="s">
+      <c r="A7" s="127" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="131" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" s="131" t="s">
+      <c r="C7" s="128" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="131" t="s">
-        <v>118</v>
-      </c>
-      <c r="F7" s="131" t="s">
+      <c r="E7" s="128" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="132" t="s">
+      <c r="G7" s="129" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="133" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" s="134">
+      <c r="A8" s="130" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="131">
         <v>1</v>
       </c>
-      <c r="C8" s="134">
+      <c r="C8" s="131">
         <v>0.75</v>
       </c>
-      <c r="D8" s="134">
+      <c r="D8" s="131">
         <v>5</v>
       </c>
-      <c r="E8" s="134">
+      <c r="E8" s="131">
         <f t="shared" ref="E8:E14" si="0">B8*C8*D8</f>
         <v>3.75</v>
       </c>
-      <c r="F8" s="134" t="s">
-        <v>120</v>
-      </c>
-      <c r="G8" s="135"/>
+      <c r="F8" s="131" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" s="132"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="136" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" s="137">
+      <c r="A9" s="133" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="134">
         <v>0.8</v>
       </c>
-      <c r="C9" s="137">
+      <c r="C9" s="134">
         <v>0.5</v>
       </c>
-      <c r="D9" s="137">
+      <c r="D9" s="134">
         <v>15</v>
       </c>
-      <c r="E9" s="137">
+      <c r="E9" s="134">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F9" s="137" t="s">
-        <v>120</v>
-      </c>
-      <c r="G9" s="138" t="s">
-        <v>122</v>
+      <c r="F9" s="134" t="s">
+        <v>140</v>
+      </c>
+      <c r="G9" s="135" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="133" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="134">
+      <c r="A10" s="130" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="131">
         <v>1</v>
       </c>
-      <c r="C10" s="134">
+      <c r="C10" s="131">
         <v>0.75</v>
       </c>
-      <c r="D10" s="134">
+      <c r="D10" s="131">
         <v>10</v>
       </c>
-      <c r="E10" s="134">
+      <c r="E10" s="131">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="F10" s="134" t="s">
-        <v>120</v>
-      </c>
-      <c r="G10" s="135"/>
+      <c r="F10" s="131" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="132"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="136" t="s">
-        <v>124</v>
-      </c>
-      <c r="B11" s="137">
+      <c r="A11" s="133" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="134">
         <v>1</v>
       </c>
-      <c r="C11" s="137">
+      <c r="C11" s="134">
         <v>0.75</v>
       </c>
-      <c r="D11" s="137">
+      <c r="D11" s="134">
         <v>15</v>
       </c>
-      <c r="E11" s="137">
+      <c r="E11" s="134">
         <f t="shared" si="0"/>
         <v>11.25</v>
       </c>
-      <c r="F11" s="137" t="s">
-        <v>120</v>
-      </c>
-      <c r="G11" s="138"/>
+      <c r="F11" s="134" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" s="135"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="133" t="s">
-        <v>125</v>
-      </c>
-      <c r="B12" s="134">
+      <c r="A12" s="130" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="131">
         <v>0.8</v>
       </c>
-      <c r="C12" s="134">
+      <c r="C12" s="131">
         <v>0.75</v>
       </c>
-      <c r="D12" s="134">
+      <c r="D12" s="131">
         <v>25</v>
       </c>
-      <c r="E12" s="134">
+      <c r="E12" s="131">
         <f t="shared" si="0"/>
         <v>15.000000000000002</v>
       </c>
-      <c r="F12" s="213" t="s">
-        <v>120</v>
-      </c>
-      <c r="G12" s="135" t="s">
-        <v>126</v>
+      <c r="F12" s="210" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" s="132" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="133" t="s">
-        <v>127</v>
-      </c>
-      <c r="B13" s="134">
+      <c r="A13" s="130" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" s="131">
         <v>1</v>
       </c>
-      <c r="C13" s="134">
+      <c r="C13" s="131">
         <v>0.75</v>
       </c>
-      <c r="D13" s="134">
+      <c r="D13" s="131">
         <v>15</v>
       </c>
-      <c r="E13" s="134">
+      <c r="E13" s="131">
         <f t="shared" ref="E13" si="1">B13*C13*D13</f>
         <v>11.25</v>
       </c>
-      <c r="F13" s="213" t="s">
-        <v>120</v>
-      </c>
-      <c r="G13" s="135"/>
+      <c r="F13" s="210" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="132"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="136" t="s">
-        <v>128</v>
-      </c>
-      <c r="B14" s="137">
+      <c r="A14" s="133" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="134">
         <v>0.9</v>
       </c>
-      <c r="C14" s="137">
+      <c r="C14" s="134">
         <v>0.75</v>
       </c>
-      <c r="D14" s="137">
+      <c r="D14" s="134">
         <v>15</v>
       </c>
-      <c r="E14" s="137">
+      <c r="E14" s="134">
         <f t="shared" si="0"/>
         <v>10.125</v>
       </c>
-      <c r="F14" s="137" t="s">
-        <v>120</v>
-      </c>
-      <c r="G14" s="138" t="s">
-        <v>129</v>
+      <c r="F14" s="134" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" s="135" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="139" t="s">
-        <v>130</v>
-      </c>
-      <c r="B15" s="267"/>
-      <c r="C15" s="267"/>
-      <c r="D15" s="140">
+      <c r="A15" s="136" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="271"/>
+      <c r="C15" s="271"/>
+      <c r="D15" s="137">
         <f>SUM(D8:D14)</f>
         <v>100</v>
       </c>
-      <c r="E15" s="141">
+      <c r="E15" s="138">
         <f>(SUM(E8:E14)+E17+E18)/D15</f>
         <v>0.64875000000000005</v>
       </c>
-      <c r="F15" s="141"/>
-      <c r="G15" s="142" t="s">
-        <v>131</v>
+      <c r="F15" s="138"/>
+      <c r="G15" s="139" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="143" t="s">
-        <v>132</v>
-      </c>
-      <c r="B16" s="144" t="s">
+      <c r="A16" s="140" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144" t="s">
+      <c r="C16" s="141"/>
+      <c r="D16" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="145" t="s">
-        <v>118</v>
-      </c>
-      <c r="F16" s="145"/>
-      <c r="G16" s="146" t="s">
+      <c r="E16" s="142" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" s="142"/>
+      <c r="G16" s="143" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="147" t="s">
-        <v>133</v>
-      </c>
-      <c r="B17" s="148"/>
-      <c r="C17" s="148"/>
-      <c r="D17" s="149">
+      <c r="A17" s="144" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" s="145"/>
+      <c r="C17" s="145"/>
+      <c r="D17" s="146">
         <v>-10</v>
       </c>
-      <c r="E17" s="148">
+      <c r="E17" s="145">
         <f>B17*D17</f>
         <v>0</v>
       </c>
-      <c r="F17" s="148"/>
-      <c r="G17" s="150"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="147"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="151" t="s">
-        <v>134</v>
-      </c>
-      <c r="B18" s="152"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="153">
+      <c r="A18" s="148" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" s="149"/>
+      <c r="C18" s="149"/>
+      <c r="D18" s="150">
         <v>-15</v>
       </c>
-      <c r="E18" s="152">
+      <c r="E18" s="149">
         <f>B18*D18</f>
         <v>0</v>
       </c>
-      <c r="F18" s="152"/>
-      <c r="G18" s="154"/>
+      <c r="F18" s="149"/>
+      <c r="G18" s="151"/>
     </row>
     <row r="19" spans="1:7" ht="23.25">
-      <c r="A19" s="268" t="s">
+      <c r="A19" s="272" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="269"/>
-      <c r="C19" s="269"/>
-      <c r="D19" s="269"/>
-      <c r="E19" s="269"/>
-      <c r="F19" s="269"/>
-      <c r="G19" s="270"/>
+      <c r="B19" s="273"/>
+      <c r="C19" s="273"/>
+      <c r="D19" s="273"/>
+      <c r="E19" s="273"/>
+      <c r="F19" s="273"/>
+      <c r="G19" s="274"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="155" t="s">
-        <v>116</v>
-      </c>
-      <c r="B20" s="156" t="s">
+      <c r="A20" s="152" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="156" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20" s="156" t="s">
+      <c r="C20" s="153" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="156" t="s">
-        <v>118</v>
-      </c>
-      <c r="F20" s="217" t="s">
+      <c r="E20" s="153" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="214" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="216" t="s">
+      <c r="G20" s="213" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="157" t="s">
-        <v>135</v>
-      </c>
-      <c r="B21" s="158"/>
-      <c r="C21" s="158"/>
-      <c r="D21" s="158">
+      <c r="A21" s="154" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21" s="155">
+        <v>1</v>
+      </c>
+      <c r="C21" s="155">
+        <v>1</v>
+      </c>
+      <c r="D21" s="155">
         <v>20</v>
       </c>
-      <c r="E21" s="158">
+      <c r="E21" s="155">
         <f>B21*C21*D21</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="158"/>
-      <c r="G21" s="218"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="160" t="s">
-        <v>136</v>
-      </c>
-      <c r="B22" s="161"/>
-      <c r="C22" s="161"/>
-      <c r="D22" s="161">
+        <v>20</v>
+      </c>
+      <c r="F21" s="155" t="s">
+        <v>140</v>
+      </c>
+      <c r="G21" s="215"/>
+    </row>
+    <row r="22" spans="1:7" ht="45.75">
+      <c r="A22" s="157" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="158">
+        <v>0.8</v>
+      </c>
+      <c r="C22" s="158">
+        <v>1</v>
+      </c>
+      <c r="D22" s="158">
         <v>15</v>
       </c>
-      <c r="E22" s="161">
+      <c r="E22" s="158">
         <f t="shared" ref="E22:E26" si="2">B22*C22*D22</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="161"/>
-      <c r="G22" s="214"/>
+        <v>12</v>
+      </c>
+      <c r="F22" s="158" t="s">
+        <v>140</v>
+      </c>
+      <c r="G22" s="211" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="157" t="s">
-        <v>137</v>
-      </c>
-      <c r="B23" s="158"/>
-      <c r="C23" s="158"/>
-      <c r="D23" s="158">
+      <c r="A23" s="154" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" s="155">
+        <v>1</v>
+      </c>
+      <c r="C23" s="155">
+        <v>0.95</v>
+      </c>
+      <c r="D23" s="155">
         <v>15</v>
       </c>
-      <c r="E23" s="158">
+      <c r="E23" s="155">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="158"/>
-      <c r="G23" s="159"/>
+        <v>14.25</v>
+      </c>
+      <c r="F23" s="155" t="s">
+        <v>140</v>
+      </c>
+      <c r="G23" s="221" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="160" t="s">
-        <v>138</v>
-      </c>
-      <c r="B24" s="161"/>
-      <c r="C24" s="161"/>
-      <c r="D24" s="161">
+      <c r="A24" s="157" t="s">
+        <v>160</v>
+      </c>
+      <c r="B24" s="158">
+        <v>0.85</v>
+      </c>
+      <c r="C24" s="158">
+        <v>0.95</v>
+      </c>
+      <c r="D24" s="158">
         <v>25</v>
       </c>
-      <c r="E24" s="161">
+      <c r="E24" s="158">
         <f t="shared" ref="E24" si="3">B24*C24*D24</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="161"/>
-      <c r="G24" s="214"/>
+        <v>20.1875</v>
+      </c>
+      <c r="F24" s="158" t="s">
+        <v>140</v>
+      </c>
+      <c r="G24" s="211" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="158" t="s">
-        <v>139</v>
-      </c>
-      <c r="B25" s="158"/>
-      <c r="C25" s="158"/>
-      <c r="D25" s="158">
+      <c r="A25" s="155" t="s">
+        <v>162</v>
+      </c>
+      <c r="B25" s="155">
+        <v>1</v>
+      </c>
+      <c r="C25" s="155">
+        <v>1</v>
+      </c>
+      <c r="D25" s="155">
         <v>10</v>
       </c>
-      <c r="E25" s="158">
+      <c r="E25" s="155">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="158"/>
-      <c r="G25" s="159"/>
+        <v>10</v>
+      </c>
+      <c r="F25" s="155" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="156"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="161" t="s">
+      <c r="A26" s="158" t="s">
+        <v>163</v>
+      </c>
+      <c r="B26" s="158">
+        <v>0.95</v>
+      </c>
+      <c r="C26" s="158">
+        <v>1</v>
+      </c>
+      <c r="D26" s="158">
+        <v>15</v>
+      </c>
+      <c r="E26" s="158">
+        <f t="shared" si="2"/>
+        <v>14.25</v>
+      </c>
+      <c r="F26" s="158" t="s">
         <v>140</v>
       </c>
-      <c r="B26" s="161"/>
-      <c r="C26" s="161"/>
-      <c r="D26" s="161">
-        <v>15</v>
-      </c>
-      <c r="E26" s="161">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="161"/>
-      <c r="G26" s="214"/>
+      <c r="G26" s="211" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="162" t="s">
-        <v>130</v>
-      </c>
-      <c r="B27" s="163"/>
-      <c r="C27" s="163"/>
-      <c r="D27" s="163">
+      <c r="A27" s="159" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" s="160"/>
+      <c r="C27" s="160"/>
+      <c r="D27" s="160">
         <f>SUM(D21:D26)</f>
         <v>100</v>
       </c>
-      <c r="E27" s="164">
+      <c r="E27" s="161">
         <f>(SUM(E21:E26) + E29+E30+E31)/D27</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="164"/>
-      <c r="G27" s="165"/>
+        <v>0.90687499999999999</v>
+      </c>
+      <c r="F27" s="161"/>
+      <c r="G27" s="162"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="166" t="s">
-        <v>132</v>
-      </c>
-      <c r="B28" s="167" t="s">
+      <c r="A28" s="163" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" s="164" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="167"/>
-      <c r="D28" s="167" t="s">
+      <c r="C28" s="164"/>
+      <c r="D28" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="168" t="s">
-        <v>118</v>
-      </c>
-      <c r="F28" s="168"/>
-      <c r="G28" s="169" t="s">
+      <c r="E28" s="165" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" s="165"/>
+      <c r="G28" s="166" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="170" t="s">
-        <v>133</v>
-      </c>
-      <c r="B29" s="171">
-        <v>0</v>
-      </c>
-      <c r="C29" s="171"/>
-      <c r="D29" s="172">
+      <c r="A29" s="167" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" s="168">
+        <v>0</v>
+      </c>
+      <c r="C29" s="168"/>
+      <c r="D29" s="169">
         <v>-10</v>
       </c>
-      <c r="E29" s="171">
+      <c r="E29" s="168">
         <f>B29*D29</f>
         <v>0</v>
       </c>
-      <c r="F29" s="171"/>
-      <c r="G29" s="173"/>
+      <c r="F29" s="168"/>
+      <c r="G29" s="170"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="174" t="s">
-        <v>141</v>
-      </c>
-      <c r="B30" s="175">
-        <v>0</v>
-      </c>
-      <c r="C30" s="175"/>
-      <c r="D30" s="176">
+      <c r="A30" s="171" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" s="172">
+        <v>0</v>
+      </c>
+      <c r="C30" s="172"/>
+      <c r="D30" s="173">
         <v>-15</v>
       </c>
-      <c r="E30" s="175">
+      <c r="E30" s="172">
         <f>B30*D30</f>
         <v>0</v>
       </c>
-      <c r="F30" s="175"/>
-      <c r="G30" s="177"/>
+      <c r="F30" s="172"/>
+      <c r="G30" s="174"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="178" t="s">
-        <v>142</v>
-      </c>
-      <c r="B31" s="179">
-        <v>0</v>
-      </c>
-      <c r="C31" s="179"/>
-      <c r="D31" s="180">
+      <c r="A31" s="175" t="s">
+        <v>166</v>
+      </c>
+      <c r="B31" s="176">
+        <v>0</v>
+      </c>
+      <c r="C31" s="176"/>
+      <c r="D31" s="177">
         <v>-5</v>
       </c>
-      <c r="E31" s="179">
+      <c r="E31" s="176">
         <f>B31*D31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="179"/>
-      <c r="G31" s="181"/>
+      <c r="F31" s="176"/>
+      <c r="G31" s="178"/>
     </row>
     <row r="32" spans="1:7" ht="23.25">
-      <c r="A32" s="261" t="s">
+      <c r="A32" s="265" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="262"/>
-      <c r="C32" s="262"/>
-      <c r="D32" s="262"/>
-      <c r="E32" s="262"/>
-      <c r="F32" s="262"/>
-      <c r="G32" s="263"/>
+      <c r="B32" s="266"/>
+      <c r="C32" s="266"/>
+      <c r="D32" s="266"/>
+      <c r="E32" s="266"/>
+      <c r="F32" s="266"/>
+      <c r="G32" s="267"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="182" t="s">
-        <v>116</v>
-      </c>
-      <c r="B33" s="183" t="s">
+      <c r="A33" s="179" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="183" t="s">
-        <v>117</v>
-      </c>
-      <c r="D33" s="183" t="s">
+      <c r="C33" s="180" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="183" t="s">
-        <v>118</v>
-      </c>
-      <c r="F33" s="183" t="s">
+      <c r="E33" s="180" t="s">
+        <v>138</v>
+      </c>
+      <c r="F33" s="180" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="184" t="s">
+      <c r="G33" s="181" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="185" t="s">
-        <v>143</v>
-      </c>
-      <c r="B34" s="186"/>
-      <c r="C34" s="186"/>
-      <c r="D34" s="186">
+      <c r="A34" s="182" t="s">
+        <v>167</v>
+      </c>
+      <c r="B34" s="183"/>
+      <c r="C34" s="183"/>
+      <c r="D34" s="183">
         <v>15</v>
       </c>
-      <c r="E34" s="186">
+      <c r="E34" s="183">
         <f t="shared" ref="E34:E39" si="4">B34*C34*D34</f>
         <v>0</v>
       </c>
-      <c r="F34" s="186"/>
-      <c r="G34" s="215"/>
+      <c r="F34" s="183"/>
+      <c r="G34" s="212"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="188" t="s">
-        <v>144</v>
-      </c>
-      <c r="B35" s="189"/>
-      <c r="C35" s="189"/>
-      <c r="D35" s="189">
+      <c r="A35" s="185" t="s">
+        <v>168</v>
+      </c>
+      <c r="B35" s="186"/>
+      <c r="C35" s="186"/>
+      <c r="D35" s="186">
         <v>20</v>
       </c>
-      <c r="E35" s="189">
+      <c r="E35" s="186">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F35" s="189"/>
-      <c r="G35" s="190"/>
+      <c r="F35" s="186"/>
+      <c r="G35" s="187"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="185" t="s">
-        <v>145</v>
-      </c>
-      <c r="B36" s="186"/>
-      <c r="C36" s="186"/>
-      <c r="D36" s="186">
+      <c r="A36" s="182" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" s="183"/>
+      <c r="C36" s="183"/>
+      <c r="D36" s="183">
         <v>15</v>
       </c>
-      <c r="E36" s="186">
+      <c r="E36" s="183">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F36" s="186"/>
-      <c r="G36" s="187"/>
+      <c r="F36" s="183"/>
+      <c r="G36" s="184"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="188" t="s">
-        <v>146</v>
-      </c>
-      <c r="B37" s="189"/>
-      <c r="C37" s="189"/>
-      <c r="D37" s="189">
+      <c r="A37" s="185" t="s">
+        <v>170</v>
+      </c>
+      <c r="B37" s="186"/>
+      <c r="C37" s="186"/>
+      <c r="D37" s="186">
         <v>20</v>
       </c>
-      <c r="E37" s="189">
+      <c r="E37" s="186">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F37" s="189"/>
-      <c r="G37" s="190"/>
+      <c r="F37" s="186"/>
+      <c r="G37" s="187"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="185" t="s">
-        <v>147</v>
-      </c>
-      <c r="B38" s="186"/>
-      <c r="C38" s="186"/>
-      <c r="D38" s="186">
+      <c r="A38" s="182" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38" s="183"/>
+      <c r="C38" s="183"/>
+      <c r="D38" s="183">
         <v>15</v>
       </c>
-      <c r="E38" s="186">
+      <c r="E38" s="183">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F38" s="186"/>
-      <c r="G38" s="187"/>
+      <c r="F38" s="183"/>
+      <c r="G38" s="184"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="188" t="s">
-        <v>148</v>
-      </c>
-      <c r="B39" s="189"/>
-      <c r="C39" s="189"/>
-      <c r="D39" s="189">
+      <c r="A39" s="185" t="s">
+        <v>172</v>
+      </c>
+      <c r="B39" s="186"/>
+      <c r="C39" s="186"/>
+      <c r="D39" s="186">
         <v>15</v>
       </c>
-      <c r="E39" s="189">
+      <c r="E39" s="186">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F39" s="189"/>
-      <c r="G39" s="190"/>
+      <c r="F39" s="186"/>
+      <c r="G39" s="187"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="191" t="s">
-        <v>130</v>
-      </c>
-      <c r="B40" s="192"/>
-      <c r="C40" s="192"/>
-      <c r="D40" s="192">
+      <c r="A40" s="188" t="s">
+        <v>150</v>
+      </c>
+      <c r="B40" s="189"/>
+      <c r="C40" s="189"/>
+      <c r="D40" s="189">
         <f>SUM(D34:D39)</f>
         <v>100</v>
       </c>
-      <c r="E40" s="193">
+      <c r="E40" s="190">
         <f>(SUM(E34:E39) +E42+E43+E44)/D40</f>
         <v>0</v>
       </c>
-      <c r="F40" s="193"/>
-      <c r="G40" s="194"/>
+      <c r="F40" s="190"/>
+      <c r="G40" s="191"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="195" t="s">
-        <v>132</v>
-      </c>
-      <c r="B41" s="196" t="s">
+      <c r="A41" s="192" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" s="193" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="196"/>
-      <c r="D41" s="196" t="s">
+      <c r="C41" s="193"/>
+      <c r="D41" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="197" t="s">
-        <v>118</v>
-      </c>
-      <c r="F41" s="197"/>
-      <c r="G41" s="198" t="s">
+      <c r="E41" s="194" t="s">
+        <v>138</v>
+      </c>
+      <c r="F41" s="194"/>
+      <c r="G41" s="195" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="199" t="s">
-        <v>133</v>
-      </c>
-      <c r="B42" s="200">
-        <v>0</v>
-      </c>
-      <c r="C42" s="200"/>
-      <c r="D42" s="201">
+      <c r="A42" s="196" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" s="197">
+        <v>0</v>
+      </c>
+      <c r="C42" s="197"/>
+      <c r="D42" s="198">
         <v>-10</v>
       </c>
-      <c r="E42" s="200">
+      <c r="E42" s="197">
         <f>B42*D42</f>
         <v>0</v>
       </c>
-      <c r="F42" s="200"/>
-      <c r="G42" s="202"/>
+      <c r="F42" s="197"/>
+      <c r="G42" s="199"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="203" t="s">
-        <v>149</v>
-      </c>
-      <c r="B43" s="204">
-        <v>0</v>
-      </c>
-      <c r="C43" s="204"/>
-      <c r="D43" s="205">
+      <c r="A43" s="200" t="s">
+        <v>173</v>
+      </c>
+      <c r="B43" s="201">
+        <v>0</v>
+      </c>
+      <c r="C43" s="201"/>
+      <c r="D43" s="202">
         <v>-15</v>
       </c>
-      <c r="E43" s="204">
+      <c r="E43" s="201">
         <f>B43*D43</f>
         <v>0</v>
       </c>
-      <c r="F43" s="204"/>
-      <c r="G43" s="206"/>
+      <c r="F43" s="201"/>
+      <c r="G43" s="203"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="207" t="s">
-        <v>142</v>
-      </c>
-      <c r="B44" s="208">
-        <v>0</v>
-      </c>
-      <c r="C44" s="208"/>
-      <c r="D44" s="209">
+      <c r="A44" s="204" t="s">
+        <v>166</v>
+      </c>
+      <c r="B44" s="205">
+        <v>0</v>
+      </c>
+      <c r="C44" s="205"/>
+      <c r="D44" s="206">
         <v>-5</v>
       </c>
-      <c r="E44" s="208">
+      <c r="E44" s="205">
         <f>B44*D44</f>
         <v>0</v>
       </c>
-      <c r="F44" s="208"/>
-      <c r="G44" s="210"/>
+      <c r="F44" s="205"/>
+      <c r="G44" s="207"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5585,12 +6857,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5599,14 +6865,20 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
 </file>
--- a/Equipe102.xlsx
+++ b/Equipe102.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27605"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="454" documentId="13_ncr:1_{DBEB54B7-8C9A-40C2-9BEC-806A0CAE1E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3618203C-20EF-4F85-834E-B1EDCCA49486}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5B64CA1-2FF6-4C83-9253-961CF1308BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3461,13 +3461,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
-    <cellStyle name="40% - Accent2" xfId="5" builtinId="35"/>
-    <cellStyle name="40% - Accent3" xfId="6" builtinId="39"/>
-    <cellStyle name="Explanatory Text" xfId="2" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent1" xfId="4" builtinId="31"/>
+    <cellStyle name="40 % - Accent2" xfId="5" builtinId="35"/>
+    <cellStyle name="40 % - Accent3" xfId="6" builtinId="39"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="3" builtinId="21"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
+    <cellStyle name="Sortie" xfId="3" builtinId="21"/>
+    <cellStyle name="Texte explicatif" xfId="2" builtinId="53" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3920,11 +3920,11 @@
       </c>
       <c r="C5" s="110">
         <f>'Assurance Qualité'!F59</f>
-        <v>0.66650000000000009</v>
+        <v>0.6915</v>
       </c>
       <c r="D5" s="110">
         <f t="shared" ref="D5:D6" si="1">B5*0.6+C5*0.4 - 0.1*E5</f>
-        <v>0.81072500000000003</v>
+        <v>0.82072499999999993</v>
       </c>
       <c r="E5" s="111"/>
       <c r="F5" s="112">
@@ -3932,7 +3932,7 @@
       </c>
       <c r="G5" s="113">
         <f t="shared" si="0"/>
-        <v>20.268125000000001</v>
+        <v>20.518124999999998</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3988,8 +3988,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4329,7 +4329,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:17" ht="60.75">
+    <row r="14" spans="1:17" ht="96" customHeight="1">
       <c r="A14" s="23" t="s">
         <v>31</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>37</v>
       </c>
       <c r="F15" s="86">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G15" s="90">
         <f t="shared" si="0"/>
@@ -4487,7 +4487,7 @@
       <c r="E18" s="49"/>
       <c r="F18" s="50">
         <f>SUMPRODUCT(F13:F17,G13:G17)</f>
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="G18" s="51">
         <f>SUM(G13:G17)</f>
@@ -4688,7 +4688,7 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
-    <row r="25" spans="1:17" ht="213">
+    <row r="25" spans="1:17" ht="137.25">
       <c r="A25" s="23" t="s">
         <v>54</v>
       </c>
@@ -4814,7 +4814,7 @@
       <c r="L28" s="9"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="1:17" ht="121.5">
+    <row r="29" spans="1:17" ht="76.5">
       <c r="A29" s="31" t="s">
         <v>62</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>107</v>
       </c>
       <c r="F45" s="86">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G45" s="87">
         <f t="shared" si="4"/>
@@ -5388,7 +5388,7 @@
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
     </row>
-    <row r="46" spans="1:13" ht="183">
+    <row r="46" spans="1:13" ht="152.25">
       <c r="A46" s="23" t="s">
         <v>109</v>
       </c>
@@ -5509,7 +5509,7 @@
       <c r="E49" s="59"/>
       <c r="F49" s="70">
         <f>SUMPRODUCT(F40:F48,G40:G48)</f>
-        <v>24.5</v>
+        <v>26.5</v>
       </c>
       <c r="G49" s="51">
         <f>SUM(G40:G48)</f>
@@ -5784,7 +5784,7 @@
       <c r="E58" s="26"/>
       <c r="F58" s="35">
         <f>F11+F18+F22+F27+F32+F38+F49+F56</f>
-        <v>66.650000000000006</v>
+        <v>69.150000000000006</v>
       </c>
       <c r="G58" s="27">
         <f>G11+G18+G22+G27+G32+G38+G49+G56</f>
@@ -5816,7 +5816,7 @@
       <c r="E59" s="237"/>
       <c r="F59" s="238">
         <f>F58/G58</f>
-        <v>0.66650000000000009</v>
+        <v>0.6915</v>
       </c>
       <c r="G59" s="239"/>
       <c r="H59" s="240"/>
@@ -5903,7 +5903,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>

--- a/Equipe102.xlsx
+++ b/Equipe102.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27605"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27624"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5B64CA1-2FF6-4C83-9253-961CF1308BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22E4B66F-7055-494B-B48E-7F5FA8387210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sommaire" sheetId="9" r:id="rId1"/>
     <sheet name="Assurance Qualité" sheetId="6" r:id="rId2"/>
     <sheet name="Fonctionnalités" sheetId="8" r:id="rId3"/>
+    <sheet name="UX" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="204">
   <si>
     <t>Fonct.</t>
   </si>
@@ -161,6 +162,77 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>admin.service.ts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>exportGameAsJson</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> utilise document.createElement, créee un élément sur le DOM au lieu d'utiliser des components angular, et ne le supprime jamais.
+La gestion des événements WS ne devrait pas se trouver directement dans server.ts  : ayez une classe dédiée à cette gestion </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>room.ts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> instancie des services avec </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> au lieu d'utiliser des injecteurs. Cette classe a des responsabilités de service.</t>
+    </r>
+  </si>
+  <si>
     <t>1.2 Arborescence</t>
   </si>
   <si>
@@ -202,6 +274,85 @@
         <rFont val="Calibri"/>
       </rPr>
       <t>a beaucoup trop de responsabilité. le plus problématique est sûrement la validation des réponses et le timer. (timer devrait être une classe séparée, la validation aussi)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>room.ts(serveur)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> est une classe, et possède une référence à l'objet </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">SocketIoServer. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Cette gestion là aurait du être dans un roomService. En fait, la classe se comporte comme un service. La division effectuée depuis le sprint 2 est un bon départ, mais room.ts est encore problématique. Il aurait fallu séparer entre une structure de données sur les informations et états de la </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>room</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">, et un gestionnaire de style </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>roomService</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> game.service.ts(client)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> gère 30 attributs, ce qui est trop. Aurait du sous-traiter à d'autres components.</t>
     </r>
   </si>
   <si>
@@ -295,6 +446,42 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">room.ts </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">est passée de 24 à 19 attributs. C'est une améliration, mais encore problématique. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">game.service.ts(client) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">a 30 attributs (la plupart privés). </t>
+    </r>
+  </si>
+  <si>
     <t>2.3 Accessibilité</t>
   </si>
   <si>
@@ -420,6 +607,86 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>game-page-questions.component.ts:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> le nombre d'@Input est toujours très élevé. Voir si possible de regrouper ceux qui peuvent l'être (par exemple, question et choices).</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> selectedChoices </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">aurait toujours pu être private. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>create-qgame-page.component.ts</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">momdifiedQuestion, games </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>game.service.ts(client)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>: playerNameValue: des get et des sets publics sur un attribut privés sans validation, c'est inutile. (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>setPlayerName)</t>
+    </r>
+  </si>
+  <si>
     <t>2.4 Couplage</t>
   </si>
   <si>
@@ -430,10 +697,82 @@
     <t>this.gameData.questions[this.previousQuestionIndex].points</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>socket.service.ts(serveur):167</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">, c'est ce qu'on appelle un cas de </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Feature Envy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">, votre classe </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>room.ts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> aurait du servir de gestionnaire à ce genrn d'événements et de réception d'information. Une classe externe ne devrait pas avoir à jouer dans plusieurs dictionnaires d'une classe pour la faire fonctionner, des accesseurs auraient du être conçus pour cela!</t>
+    </r>
+  </si>
+  <si>
     <t>2.5 Valeur par défaut</t>
   </si>
   <si>
     <t>La classe initialise tous ses attributs de la même façon. Soit à la définition, soit dans le constructeur.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>room.ts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> certains attributs sont initialisés à la déclaration, d'autres dans le constructeur.</t>
+    </r>
   </si>
   <si>
     <t>3. Fonctions et méthodes</t>
@@ -598,6 +937,42 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>admin.service.ts:144:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> else inutile, mettre ligne 142 extérieur else if. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>socket.service(serveur)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>: la complexité et la longueur des méthodes est beaucoup trop élevée.</t>
+    </r>
+  </si>
+  <si>
     <t>3.2 Paramètres</t>
   </si>
   <si>
@@ -710,6 +1085,25 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">game.service.ts </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> a encore des return await</t>
+    </r>
+  </si>
+  <si>
     <t>4.3 Message d'erreur</t>
   </si>
   <si>
@@ -784,6 +1178,25 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>host-game-page.component:nextQuestion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> a des nombres magiques (1000, 3) dans des constantes locales.</t>
+    </r>
+  </si>
+  <si>
     <t>5.2 Environnement</t>
   </si>
   <si>
@@ -820,6 +1233,34 @@
     <t>histogram.component.ts:93, new-game-page.component.ts:54</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>game-page-scoresheet.component:47</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>histogram.component:149, new-game-page.component:53, socket.service:107</t>
+    </r>
+  </si>
+  <si>
     <t>6.2 Logique négative</t>
   </si>
   <si>
@@ -999,6 +1440,68 @@
         <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve"> On es tout.e.s passé.e.s par là ( game-page-questions.component.ts:109/110 aussi)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>choice.component.ts:ngOnInit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> encore une fois, un ternaire aurait été efficace. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>new-game-page.component:suggestionChoice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> aurait pu être un ternaire. (Mais bravoi de l'avoir séparée!) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>game-validation.service.ts:37</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> est encore présente. idem pour </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>game-page-questions.component.ts:112</t>
     </r>
   </si>
   <si>
@@ -1063,6 +1566,42 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>game-validation.service.ts isValidGame</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">, les 3 ifs dans la for auraient pu être regroupés en un prédicat. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>host-game-page.component:nextQuestion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> la première condition est très complexe: aurait dû être un ou deux prédicats</t>
+    </r>
+  </si>
+  <si>
     <t>7. Qualité générale</t>
   </si>
   <si>
@@ -1094,6 +1633,33 @@
     <t>game-page-questions: vous avez un enum, mais ne l'utilisez pas. Utilisez des enum pour les types de jeux (et cela renforcera votre intellisense!)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Vous avez des instances de </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>'QCM' 'QRL'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> qui ne sont pas gérées avec vos enums existants.</t>
+    </r>
+  </si>
+  <si>
     <t>7.4 Classe et interface</t>
   </si>
   <si>
@@ -1101,6 +1667,25 @@
   </si>
   <si>
     <t>is-valid-game.ts devrait être une classe</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>histogram.component.ts:20 à 24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> auraient du être des interfaces et non anonymes.</t>
+    </r>
   </si>
   <si>
     <t>7.5 Duplication</t>
@@ -1282,6 +1867,59 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">game.service.ts:1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">la justification est refusée. Le nombre d'attributs est trop élevé. Les éléments doivent être </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>private</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> lorsqu'ils ne sont pas utilisés à l'extérieur de la classe. Ici, vous auriez pu utiliser </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>readonly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> au lieu de private et vous sauver la plupart de vos getters. </t>
+    </r>
+  </si>
+  <si>
     <t>7.7 Complexité</t>
   </si>
   <si>
@@ -1410,6 +2048,214 @@
         <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve"> a un if dans un else dans un else dans un if. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>answer-verifier.ts:handleQCMAnswers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> à la ligne </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>:102</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>isCorrect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> est assignée à </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">. à la ligne </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>:107</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">, on ré-assigne la valeur </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> (code inutile, déjà à </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">). Une solution qui aurait diminué la complexité aurait été de transformer le </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> de la ligne </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>:105</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> en </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">else if ( ... </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>&gt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> ... ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">et ainsi éliminer complètement le 2e if/else. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">socket.service(serveur):init </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> a une complexité cyclomatique de 99. Les méthodes associées aux événements auraient dû ne pas être des fonctions lambdas, ou être de taille négligeable.</t>
     </r>
   </si>
   <si>
@@ -1488,6 +2334,9 @@
     <t>Le commit a un message pertinent et descriptif.</t>
   </si>
   <si>
+    <t>Bonne utilisation de Git!</t>
+  </si>
+  <si>
     <t>8.3 Branches mortes</t>
   </si>
   <si>
@@ -1667,20 +2516,59 @@
     <t>Liste des joueurs intéractive</t>
   </si>
   <si>
+    <t>Des événements de sockets d'inactivité ou de quittage n'ont pas été testées.</t>
+  </si>
+  <si>
     <t>Mode aléatoire</t>
   </si>
   <si>
+    <t>événement create-room de randomModeGame non testé.</t>
+  </si>
+  <si>
     <t>Historique</t>
   </si>
   <si>
     <t>Erreur de build / déploiement erroné</t>
+  </si>
+  <si>
+    <t>Commentaire</t>
+  </si>
+  <si>
+    <t>Pénalité</t>
+  </si>
+  <si>
+    <t>Survol sur "importer" n'est pas un "cliqueur" (pour masquer quiz aussi, à quelques endroits)</t>
+  </si>
+  <si>
+    <t>Nom trop long de Quiz: rend la vue d'administration presque inutilisable.</t>
+  </si>
+  <si>
+    <t>Barres de défilement vides présentes</t>
+  </si>
+  <si>
+    <t>Barres de défilements horizontales injustifiées sur un 1080px (mais pas sur un Retina Mac)</t>
+  </si>
+  <si>
+    <t>Pouvoir cliquer sur boutons désactivés (restent interactifs)</t>
+  </si>
+  <si>
+    <t>Focus automatique absent après avoir sélectionné la salle</t>
+  </si>
+  <si>
+    <t>2x enter pour confirmer nom</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>Note:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1809,6 +2697,21 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="25">
@@ -2657,7 +3560,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="275">
+  <cellXfs count="280">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2923,9 +3826,6 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3303,6 +4203,22 @@
     <xf numFmtId="2" fontId="0" fillId="11" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3461,13 +4377,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="40 % - Accent1" xfId="4" builtinId="31"/>
-    <cellStyle name="40 % - Accent2" xfId="5" builtinId="35"/>
-    <cellStyle name="40 % - Accent3" xfId="6" builtinId="39"/>
+    <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
+    <cellStyle name="40% - Accent2" xfId="5" builtinId="35"/>
+    <cellStyle name="40% - Accent3" xfId="6" builtinId="39"/>
+    <cellStyle name="Explanatory Text" xfId="2" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
-    <cellStyle name="Sortie" xfId="3" builtinId="21"/>
-    <cellStyle name="Texte explicatif" xfId="2" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="3" builtinId="21"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3851,7 +4767,7 @@
   <dimension ref="A3:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3866,116 +4782,116 @@
   <sheetData>
     <row r="3" spans="1:7" ht="30">
       <c r="A3" s="40"/>
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="123" t="s">
+      <c r="C3" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="123" t="s">
+      <c r="D3" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="124" t="s">
+      <c r="E3" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="125" t="s">
+      <c r="F3" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="126" t="s">
+      <c r="G3" s="125" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="106">
+      <c r="B4" s="105">
         <f>(Fonctionnalités!E15)</f>
         <v>0.64875000000000005</v>
       </c>
-      <c r="C4" s="106">
+      <c r="C4" s="105">
         <f>'Assurance Qualité'!C59</f>
         <v>0.67749999999999999</v>
       </c>
-      <c r="D4" s="106">
+      <c r="D4" s="105">
         <f>B4*0.6+C4*0.4 - 0.1*E4</f>
         <v>0.66025</v>
       </c>
-      <c r="E4" s="107"/>
-      <c r="F4" s="108">
+      <c r="E4" s="106"/>
+      <c r="F4" s="107">
         <v>20</v>
       </c>
-      <c r="G4" s="222">
+      <c r="G4" s="221">
         <f t="shared" ref="G4:G7" si="0">D4*F4</f>
         <v>13.205</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="110">
+      <c r="B5" s="109">
         <f>(Fonctionnalités!E27)</f>
         <v>0.90687499999999999</v>
       </c>
-      <c r="C5" s="110">
+      <c r="C5" s="109">
         <f>'Assurance Qualité'!F59</f>
         <v>0.6915</v>
       </c>
-      <c r="D5" s="110">
+      <c r="D5" s="109">
         <f t="shared" ref="D5:D6" si="1">B5*0.6+C5*0.4 - 0.1*E5</f>
         <v>0.82072499999999993</v>
       </c>
-      <c r="E5" s="111"/>
-      <c r="F5" s="112">
+      <c r="E5" s="110"/>
+      <c r="F5" s="111">
         <v>25</v>
       </c>
-      <c r="G5" s="113">
+      <c r="G5" s="112">
         <f t="shared" si="0"/>
         <v>20.518124999999998</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="114" t="s">
+      <c r="A6" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="115">
+      <c r="B6" s="114">
         <f>(Fonctionnalités!E40)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="115">
+        <v>0.89749999999999996</v>
+      </c>
+      <c r="C6" s="114">
         <f>'Assurance Qualité'!I59</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="115">
+        <v>0.82050000000000001</v>
+      </c>
+      <c r="D6" s="114">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="116"/>
-      <c r="F6" s="117">
+        <v>0.86670000000000003</v>
+      </c>
+      <c r="E6" s="115"/>
+      <c r="F6" s="116">
         <v>25</v>
       </c>
-      <c r="G6" s="118">
+      <c r="G6" s="117">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21.6675</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="119" t="s">
+      <c r="A7" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="120">
-        <v>0</v>
-      </c>
-      <c r="E7" s="121"/>
-      <c r="F7" s="119">
+      <c r="B7" s="118"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="119">
+        <v>0.84</v>
+      </c>
+      <c r="E7" s="120"/>
+      <c r="F7" s="118">
         <v>5</v>
       </c>
-      <c r="G7" s="122">
+      <c r="G7" s="121">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
   </sheetData>
@@ -3988,8 +4904,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView topLeftCell="D36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4008,36 +4924,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A2" s="255" t="s">
+      <c r="A2" s="260" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="255"/>
-      <c r="C2" s="255"/>
-      <c r="D2" s="255"/>
-      <c r="E2" s="255"/>
-      <c r="F2" s="255"/>
-      <c r="G2" s="255"/>
-      <c r="H2" s="255"/>
-      <c r="I2" s="255"/>
-      <c r="J2" s="255"/>
-      <c r="K2" s="255"/>
+      <c r="B2" s="260"/>
+      <c r="C2" s="260"/>
+      <c r="D2" s="260"/>
+      <c r="E2" s="260"/>
+      <c r="F2" s="260"/>
+      <c r="G2" s="260"/>
+      <c r="H2" s="260"/>
+      <c r="I2" s="260"/>
+      <c r="J2" s="260"/>
+      <c r="K2" s="260"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="4" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A4" s="256" t="s">
+      <c r="A4" s="261" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="256"/>
-      <c r="C4" s="256"/>
-      <c r="D4" s="256"/>
-      <c r="E4" s="256"/>
-      <c r="F4" s="256"/>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="256"/>
+      <c r="B4" s="261"/>
+      <c r="C4" s="261"/>
+      <c r="D4" s="261"/>
+      <c r="E4" s="261"/>
+      <c r="F4" s="261"/>
+      <c r="G4" s="261"/>
+      <c r="H4" s="261"/>
+      <c r="I4" s="261"/>
+      <c r="J4" s="261"/>
+      <c r="K4" s="261"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
@@ -4057,36 +4973,36 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A6" s="248" t="s">
+      <c r="A6" s="253" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="260" t="s">
+      <c r="B6" s="265" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="250" t="s">
+      <c r="C6" s="255" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="251"/>
-      <c r="E6" s="251"/>
-      <c r="F6" s="252" t="s">
+      <c r="D6" s="256"/>
+      <c r="E6" s="256"/>
+      <c r="F6" s="257" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="253"/>
-      <c r="H6" s="254"/>
-      <c r="I6" s="257" t="s">
+      <c r="G6" s="258"/>
+      <c r="H6" s="259"/>
+      <c r="I6" s="262" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="258"/>
-      <c r="K6" s="259"/>
+      <c r="J6" s="263"/>
+      <c r="K6" s="264"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="246"/>
-      <c r="O6" s="247"/>
-      <c r="P6" s="247"/>
+      <c r="N6" s="251"/>
+      <c r="O6" s="252"/>
+      <c r="P6" s="252"/>
     </row>
     <row r="7" spans="1:17" ht="18.75">
-      <c r="A7" s="249"/>
-      <c r="B7" s="261"/>
+      <c r="A7" s="254"/>
+      <c r="B7" s="266"/>
       <c r="C7" s="14" t="s">
         <v>14</v>
       </c>
@@ -4122,24 +5038,24 @@
       <c r="Q7" s="40"/>
     </row>
     <row r="8" spans="1:17" ht="18.75">
-      <c r="A8" s="230" t="s">
+      <c r="A8" s="235" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="230"/>
-      <c r="C8" s="223" t="s">
+      <c r="B8" s="235"/>
+      <c r="C8" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="224"/>
+      <c r="D8" s="229"/>
       <c r="E8" s="46"/>
-      <c r="F8" s="223" t="s">
+      <c r="F8" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="224"/>
+      <c r="G8" s="229"/>
       <c r="H8" s="46"/>
-      <c r="I8" s="223" t="s">
+      <c r="I8" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="224"/>
+      <c r="J8" s="229"/>
       <c r="K8" s="46"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -4155,31 +5071,33 @@
       <c r="B9" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="98">
+      <c r="C9" s="97">
         <v>0.25</v>
       </c>
-      <c r="D9" s="96">
+      <c r="D9" s="95">
         <v>6</v>
       </c>
-      <c r="E9" s="99" t="s">
+      <c r="E9" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="100">
+      <c r="F9" s="99">
         <v>0.5</v>
       </c>
-      <c r="G9" s="97">
+      <c r="G9" s="96">
         <v>6</v>
       </c>
-      <c r="H9" s="218" t="s">
+      <c r="H9" s="217" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="102">
-        <v>0</v>
-      </c>
-      <c r="J9" s="103">
+      <c r="I9" s="101">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="102">
         <v>6</v>
       </c>
-      <c r="K9" s="104"/>
+      <c r="K9" s="225" t="s">
+        <v>22</v>
+      </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="40"/>
@@ -4189,36 +5107,36 @@
     </row>
     <row r="10" spans="1:17" ht="30.75">
       <c r="A10" s="23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="98">
+        <v>24</v>
+      </c>
+      <c r="C10" s="97">
         <v>0.75</v>
       </c>
-      <c r="D10" s="96">
+      <c r="D10" s="95">
         <v>2</v>
       </c>
-      <c r="E10" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="100">
+      <c r="E10" s="98" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="99">
         <v>0.75</v>
       </c>
-      <c r="G10" s="97">
+      <c r="G10" s="96">
         <v>2</v>
       </c>
-      <c r="H10" s="101" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="102">
-        <v>0</v>
-      </c>
-      <c r="J10" s="103">
+      <c r="H10" s="100" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="101">
+        <v>1</v>
+      </c>
+      <c r="J10" s="102">
         <v>2</v>
       </c>
-      <c r="K10" s="104"/>
+      <c r="K10" s="103"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="40"/>
@@ -4227,10 +5145,10 @@
       <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A11" s="225" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="226"/>
+      <c r="A11" s="230" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="231"/>
       <c r="C11" s="47">
         <f>SUMPRODUCT(C6:C10,D6:D10)</f>
         <v>3</v>
@@ -4251,7 +5169,7 @@
       <c r="H11" s="52"/>
       <c r="I11" s="53">
         <f>SUMPRODUCT(I6:I10,J6:J10)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J11" s="54">
         <f>SUM(J6:J10)</f>
@@ -4266,24 +5184,24 @@
       <c r="Q11" s="44"/>
     </row>
     <row r="12" spans="1:17" s="12" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A12" s="230" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="230"/>
-      <c r="C12" s="223" t="s">
+      <c r="A12" s="235" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="235"/>
+      <c r="C12" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="224"/>
+      <c r="D12" s="229"/>
       <c r="E12" s="46"/>
-      <c r="F12" s="223" t="s">
+      <c r="F12" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="224"/>
+      <c r="G12" s="229"/>
       <c r="H12" s="46"/>
-      <c r="I12" s="223" t="s">
+      <c r="I12" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="224"/>
+      <c r="J12" s="229"/>
       <c r="K12" s="46"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -4292,12 +5210,12 @@
       <c r="P12" s="43"/>
       <c r="Q12" s="43"/>
     </row>
-    <row r="13" spans="1:17" ht="76.5">
+    <row r="13" spans="1:17" ht="183">
       <c r="A13" s="29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="79">
         <v>0.5</v>
@@ -4306,7 +5224,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F13" s="89">
         <v>0.75</v>
@@ -4315,26 +5233,28 @@
         <f>D13</f>
         <v>3</v>
       </c>
-      <c r="H13" s="220" t="s">
-        <v>30</v>
+      <c r="H13" s="219" t="s">
+        <v>31</v>
       </c>
       <c r="I13" s="91">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J13" s="92">
         <f>G13</f>
         <v>3</v>
       </c>
-      <c r="K13" s="93"/>
+      <c r="K13" s="224" t="s">
+        <v>32</v>
+      </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:17" ht="96" customHeight="1">
       <c r="A14" s="23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C14" s="83">
         <v>0</v>
@@ -4343,7 +5263,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="85" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F14" s="86">
         <v>0.5</v>
@@ -4352,26 +5272,28 @@
         <f t="shared" ref="G14:G17" si="0">D14</f>
         <v>2</v>
       </c>
-      <c r="H14" s="216" t="s">
-        <v>34</v>
+      <c r="H14" s="215" t="s">
+        <v>36</v>
       </c>
       <c r="I14" s="76">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="J14" s="92">
         <f t="shared" ref="J14:J17" si="1">G14</f>
         <v>2</v>
       </c>
-      <c r="K14" s="78"/>
+      <c r="K14" s="222" t="s">
+        <v>37</v>
+      </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:17" ht="167.25">
       <c r="A15" s="23" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C15" s="83">
         <v>0</v>
@@ -4380,7 +5302,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="85" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F15" s="86">
         <v>0.25</v>
@@ -4389,26 +5311,28 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H15" s="216" t="s">
-        <v>38</v>
+      <c r="H15" s="215" t="s">
+        <v>41</v>
       </c>
       <c r="I15" s="76">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="J15" s="92">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K15" s="78"/>
+      <c r="K15" s="223" t="s">
+        <v>42</v>
+      </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:17" ht="30.75">
+    <row r="16" spans="1:17" ht="121.5">
       <c r="A16" s="23" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C16" s="83">
         <v>0.75</v>
@@ -4417,7 +5341,7 @@
         <v>4</v>
       </c>
       <c r="E16" s="85" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F16" s="86">
         <v>1</v>
@@ -4428,22 +5352,24 @@
       </c>
       <c r="H16" s="88"/>
       <c r="I16" s="76">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J16" s="92">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K16" s="78"/>
+      <c r="K16" s="222" t="s">
+        <v>46</v>
+      </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:17" ht="30.75">
       <c r="A17" s="23" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C17" s="83">
         <v>1</v>
@@ -4461,21 +5387,23 @@
       </c>
       <c r="H17" s="88"/>
       <c r="I17" s="76">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="J17" s="92">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K17" s="78"/>
+      <c r="K17" s="222" t="s">
+        <v>49</v>
+      </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A18" s="225" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="226"/>
+      <c r="A18" s="230" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="231"/>
       <c r="C18" s="47">
         <f>SUMPRODUCT(C13:C17,D13:D17)</f>
         <v>8.5</v>
@@ -4496,7 +5424,7 @@
       <c r="H18" s="52"/>
       <c r="I18" s="53">
         <f>SUMPRODUCT(I13:I17,J13:J17)</f>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="J18" s="54">
         <f>SUM(J13:J17)</f>
@@ -4511,34 +5439,34 @@
       <c r="Q18" s="44"/>
     </row>
     <row r="19" spans="1:17" s="43" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A19" s="262" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="262"/>
-      <c r="C19" s="223" t="s">
+      <c r="A19" s="267" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="267"/>
+      <c r="C19" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="224"/>
+      <c r="D19" s="229"/>
       <c r="E19" s="46"/>
-      <c r="F19" s="223" t="s">
+      <c r="F19" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="224"/>
+      <c r="G19" s="229"/>
       <c r="H19" s="46"/>
-      <c r="I19" s="223" t="s">
+      <c r="I19" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="224"/>
+      <c r="J19" s="229"/>
       <c r="K19" s="46"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:17" ht="244.5">
       <c r="A20" s="23" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C20" s="83">
         <v>0</v>
@@ -4547,7 +5475,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="85" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F20" s="86">
         <v>0.25</v>
@@ -4555,25 +5483,27 @@
       <c r="G20" s="87">
         <v>3</v>
       </c>
-      <c r="H20" s="217" t="s">
-        <v>48</v>
+      <c r="H20" s="216" t="s">
+        <v>54</v>
       </c>
       <c r="I20" s="76">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J20" s="77">
         <v>3</v>
       </c>
-      <c r="K20" s="78"/>
+      <c r="K20" s="222" t="s">
+        <v>55</v>
+      </c>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
     <row r="21" spans="1:17" ht="30.75">
       <c r="A21" s="23" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C21" s="83">
         <v>1</v>
@@ -4590,7 +5520,7 @@
       </c>
       <c r="H21" s="88"/>
       <c r="I21" s="76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="77">
         <v>3</v>
@@ -4600,10 +5530,10 @@
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A22" s="263" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="245"/>
+      <c r="A22" s="268" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="250"/>
       <c r="C22" s="57">
         <f>SUMPRODUCT(C20:C21,D20:D21)</f>
         <v>3</v>
@@ -4624,7 +5554,7 @@
       <c r="H22" s="62"/>
       <c r="I22" s="63">
         <f>SUMPRODUCT(I20:I21,J20:J21)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="J22" s="64">
         <f>SUM(J20:J21)</f>
@@ -4635,36 +5565,36 @@
       <c r="M22" s="56"/>
     </row>
     <row r="23" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A23" s="209" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="209"/>
-      <c r="C23" s="223" t="s">
+      <c r="A23" s="208" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="208"/>
+      <c r="C23" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="224"/>
+      <c r="D23" s="229"/>
       <c r="E23" s="46"/>
-      <c r="F23" s="223" t="s">
+      <c r="F23" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="224"/>
+      <c r="G23" s="229"/>
       <c r="H23" s="46"/>
-      <c r="I23" s="223" t="s">
+      <c r="I23" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="224"/>
+      <c r="J23" s="229"/>
       <c r="K23" s="46"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:17" ht="30.75">
       <c r="A24" s="42" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="95">
+        <v>60</v>
+      </c>
+      <c r="C24" s="94">
         <v>1</v>
       </c>
       <c r="D24" s="25">
@@ -4679,7 +5609,7 @@
       </c>
       <c r="H24" s="28"/>
       <c r="I24" s="73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="74">
         <v>1</v>
@@ -4690,10 +5620,10 @@
     </row>
     <row r="25" spans="1:17" ht="137.25">
       <c r="A25" s="23" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C25" s="83">
         <v>0</v>
@@ -4702,7 +5632,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="85" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F25" s="86">
         <v>0.25</v>
@@ -4710,25 +5640,27 @@
       <c r="G25" s="87">
         <v>2</v>
       </c>
-      <c r="H25" s="216" t="s">
-        <v>57</v>
+      <c r="H25" s="215" t="s">
+        <v>64</v>
       </c>
       <c r="I25" s="76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="77">
         <v>2</v>
       </c>
-      <c r="K25" s="78"/>
+      <c r="K25" s="223" t="s">
+        <v>65</v>
+      </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
     </row>
     <row r="26" spans="1:17" ht="30.75">
       <c r="A26" s="23" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C26" s="83">
         <v>0</v>
@@ -4737,7 +5669,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="85" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F26" s="86">
         <v>1</v>
@@ -4747,7 +5679,7 @@
       </c>
       <c r="H26" s="88"/>
       <c r="I26" s="76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="77">
         <v>1</v>
@@ -4757,10 +5689,10 @@
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A27" s="244" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="245"/>
+      <c r="A27" s="249" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="250"/>
       <c r="C27" s="47">
         <f>SUMPRODUCT(C24:C26,D24:D26)</f>
         <v>1</v>
@@ -4781,7 +5713,7 @@
       <c r="H27" s="62"/>
       <c r="I27" s="63">
         <f>SUMPRODUCT(I24:I26,J24:J26)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J27" s="64">
         <f>SUM(J24:J26)</f>
@@ -4792,34 +5724,34 @@
       <c r="M27" s="56"/>
     </row>
     <row r="28" spans="1:17" ht="21" customHeight="1">
-      <c r="A28" s="262" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="262"/>
-      <c r="C28" s="223">
+      <c r="A28" s="267" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="267"/>
+      <c r="C28" s="228">
         <v>1</v>
       </c>
-      <c r="D28" s="224"/>
+      <c r="D28" s="229"/>
       <c r="E28" s="46"/>
-      <c r="F28" s="223" t="s">
+      <c r="F28" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="224"/>
+      <c r="G28" s="229"/>
       <c r="H28" s="66"/>
-      <c r="I28" s="223" t="s">
+      <c r="I28" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="224"/>
+      <c r="J28" s="229"/>
       <c r="K28" s="46"/>
       <c r="L28" s="9"/>
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:17" ht="76.5">
       <c r="A29" s="31" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C29" s="79">
         <v>0.5</v>
@@ -4828,7 +5760,7 @@
         <v>2</v>
       </c>
       <c r="E29" s="81" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F29" s="89">
         <v>0.5</v>
@@ -4837,26 +5769,28 @@
         <f>D29</f>
         <v>2</v>
       </c>
-      <c r="H29" s="219" t="s">
-        <v>65</v>
+      <c r="H29" s="218" t="s">
+        <v>73</v>
       </c>
       <c r="I29" s="91">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="J29" s="92">
         <f>D29</f>
         <v>2</v>
       </c>
-      <c r="K29" s="93"/>
+      <c r="K29" s="224" t="s">
+        <v>74</v>
+      </c>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="24" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C30" s="83">
         <v>0.75</v>
@@ -4865,7 +5799,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="85" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="F30" s="86">
         <v>1</v>
@@ -4874,9 +5808,9 @@
         <f t="shared" ref="G30:G31" si="2">D30</f>
         <v>2</v>
       </c>
-      <c r="H30" s="94"/>
+      <c r="H30" s="93"/>
       <c r="I30" s="76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="92">
         <f t="shared" ref="J30:J31" si="3">D30</f>
@@ -4888,10 +5822,10 @@
     </row>
     <row r="31" spans="1:17" ht="45.75">
       <c r="A31" s="24" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C31" s="83">
         <v>0.5</v>
@@ -4900,7 +5834,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="85" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F31" s="86">
         <v>0.75</v>
@@ -4909,11 +5843,11 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H31" s="94" t="s">
-        <v>72</v>
+      <c r="H31" s="93" t="s">
+        <v>81</v>
       </c>
       <c r="I31" s="76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="92">
         <f t="shared" si="3"/>
@@ -4924,10 +5858,10 @@
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A32" s="225" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="226"/>
+      <c r="A32" s="230" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="231"/>
       <c r="C32" s="47">
         <f>SUMPRODUCT(C29:C31,D29:D31)</f>
         <v>3.5</v>
@@ -4948,7 +5882,7 @@
       <c r="H32" s="67"/>
       <c r="I32" s="63">
         <f>SUMPRODUCT(I29:I31,J29:J31)</f>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="J32" s="64">
         <f>SUM(J29:J31)</f>
@@ -4959,19 +5893,19 @@
       <c r="M32" s="56"/>
     </row>
     <row r="33" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A33" s="230" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" s="230"/>
-      <c r="C33" s="223" t="s">
+      <c r="A33" s="235" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="235"/>
+      <c r="C33" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="224"/>
+      <c r="D33" s="229"/>
       <c r="E33" s="46"/>
-      <c r="F33" s="223" t="s">
+      <c r="F33" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="224"/>
+      <c r="G33" s="229"/>
       <c r="H33" s="46"/>
       <c r="I33" s="68" t="s">
         <v>17</v>
@@ -4981,12 +5915,12 @@
       <c r="L33" s="8"/>
       <c r="M33" s="4"/>
     </row>
-    <row r="34" spans="1:13" ht="30.75">
+    <row r="34" spans="1:13" ht="63" customHeight="1">
       <c r="A34" s="29" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C34" s="79">
         <v>0.75</v>
@@ -4995,7 +5929,7 @@
         <v>2</v>
       </c>
       <c r="E34" s="81" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F34" s="89">
         <v>0.5</v>
@@ -5003,25 +5937,27 @@
       <c r="G34" s="90">
         <v>2</v>
       </c>
-      <c r="H34" s="220" t="s">
-        <v>77</v>
+      <c r="H34" s="219" t="s">
+        <v>86</v>
       </c>
       <c r="I34" s="91">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J34" s="92">
         <v>2</v>
       </c>
-      <c r="K34" s="93"/>
+      <c r="K34" s="226" t="s">
+        <v>87</v>
+      </c>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="23" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C35" s="83">
         <v>1</v>
@@ -5036,11 +5972,11 @@
       <c r="G35" s="87">
         <v>2</v>
       </c>
-      <c r="H35" s="217" t="s">
-        <v>80</v>
+      <c r="H35" s="216" t="s">
+        <v>90</v>
       </c>
       <c r="I35" s="76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" s="77">
         <v>2</v>
@@ -5051,10 +5987,10 @@
     </row>
     <row r="36" spans="1:13" ht="213">
       <c r="A36" s="23" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C36" s="83">
         <v>0.25</v>
@@ -5063,7 +5999,7 @@
         <v>3</v>
       </c>
       <c r="E36" s="85" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F36" s="86">
         <v>0.25</v>
@@ -5071,25 +6007,27 @@
       <c r="G36" s="87">
         <v>3</v>
       </c>
-      <c r="H36" s="217" t="s">
-        <v>84</v>
+      <c r="H36" s="216" t="s">
+        <v>94</v>
       </c>
       <c r="I36" s="76">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J36" s="77">
         <v>3</v>
       </c>
-      <c r="K36" s="78"/>
+      <c r="K36" s="223" t="s">
+        <v>95</v>
+      </c>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:13" ht="91.5">
       <c r="A37" s="23" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C37" s="83">
         <v>1</v>
@@ -5104,24 +6042,26 @@
       <c r="G37" s="87">
         <v>3</v>
       </c>
-      <c r="H37" s="216" t="s">
-        <v>87</v>
+      <c r="H37" s="215" t="s">
+        <v>98</v>
       </c>
       <c r="I37" s="76">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="J37" s="77">
         <v>3</v>
       </c>
-      <c r="K37" s="78"/>
+      <c r="K37" s="223" t="s">
+        <v>99</v>
+      </c>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
     </row>
     <row r="38" spans="1:13" s="44" customFormat="1" ht="15.75">
-      <c r="A38" s="225" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="226"/>
+      <c r="A38" s="230" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="231"/>
       <c r="C38" s="69">
         <f>SUMPRODUCT(C34:C37,D34:D37)</f>
         <v>7.25</v>
@@ -5142,7 +6082,7 @@
       <c r="H38" s="52"/>
       <c r="I38" s="63">
         <f>SUMPRODUCT(I34:I37,J34:J37)</f>
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="J38" s="64">
         <f>SUM(J34:J37)</f>
@@ -5154,33 +6094,33 @@
     </row>
     <row r="39" spans="1:13" ht="18.75" customHeight="1">
       <c r="A39" s="45" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B39" s="45"/>
-      <c r="C39" s="223" t="s">
+      <c r="C39" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="224"/>
+      <c r="D39" s="229"/>
       <c r="E39" s="66"/>
-      <c r="F39" s="223" t="s">
+      <c r="F39" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="224"/>
+      <c r="G39" s="229"/>
       <c r="H39" s="46"/>
-      <c r="I39" s="223" t="s">
+      <c r="I39" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="J39" s="224"/>
+      <c r="J39" s="229"/>
       <c r="K39" s="46"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
     </row>
     <row r="40" spans="1:13" ht="60.75">
       <c r="A40" s="23" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C40" s="83">
         <v>0.75</v>
@@ -5189,7 +6129,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="85" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F40" s="86">
         <v>1</v>
@@ -5200,7 +6140,7 @@
       </c>
       <c r="H40" s="88"/>
       <c r="I40" s="76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" s="77">
         <f>D40</f>
@@ -5210,12 +6150,12 @@
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
     </row>
-    <row r="41" spans="1:13" ht="45.75">
+    <row r="41" spans="1:13" ht="30.75">
       <c r="A41" s="23" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C41" s="83">
         <v>1</v>
@@ -5231,11 +6171,11 @@
         <f t="shared" ref="G41:G48" si="4">D41</f>
         <v>2</v>
       </c>
-      <c r="H41" s="216" t="s">
-        <v>94</v>
+      <c r="H41" s="215" t="s">
+        <v>106</v>
       </c>
       <c r="I41" s="76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" s="77">
         <f t="shared" ref="J41:J48" si="5">D41</f>
@@ -5247,10 +6187,10 @@
     </row>
     <row r="42" spans="1:13" ht="60.75">
       <c r="A42" s="23" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C42" s="83">
         <v>0.5</v>
@@ -5259,7 +6199,7 @@
         <v>2</v>
       </c>
       <c r="E42" s="85" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="F42" s="86">
         <v>1</v>
@@ -5270,21 +6210,23 @@
       </c>
       <c r="H42" s="88"/>
       <c r="I42" s="76">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="J42" s="77">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="K42" s="78"/>
+      <c r="K42" s="223" t="s">
+        <v>110</v>
+      </c>
       <c r="L42" s="5"/>
     </row>
     <row r="43" spans="1:13" ht="30.75">
       <c r="A43" s="23" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C43" s="83">
         <v>0.5</v>
@@ -5293,7 +6235,7 @@
         <v>4</v>
       </c>
       <c r="E43" s="85" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="F43" s="86">
         <v>1</v>
@@ -5304,22 +6246,24 @@
       </c>
       <c r="H43" s="88"/>
       <c r="I43" s="76">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="J43" s="77">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="K43" s="78"/>
+      <c r="K43" s="222" t="s">
+        <v>114</v>
+      </c>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
     </row>
     <row r="44" spans="1:13" ht="198">
       <c r="A44" s="23" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C44" s="83">
         <v>0.75</v>
@@ -5328,7 +6272,7 @@
         <v>6</v>
       </c>
       <c r="E44" s="85" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="F44" s="86">
         <v>0.5</v>
@@ -5337,11 +6281,11 @@
         <f>D44</f>
         <v>6</v>
       </c>
-      <c r="H44" s="216" t="s">
-        <v>104</v>
+      <c r="H44" s="215" t="s">
+        <v>118</v>
       </c>
       <c r="I44" s="76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" s="77">
         <f>D44</f>
@@ -5353,10 +6297,10 @@
     </row>
     <row r="45" spans="1:13" ht="244.5">
       <c r="A45" s="23" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="C45" s="83">
         <v>1</v>
@@ -5365,7 +6309,7 @@
         <v>8</v>
       </c>
       <c r="E45" s="85" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="F45" s="86">
         <v>0.5</v>
@@ -5374,26 +6318,28 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="H45" s="217" t="s">
-        <v>108</v>
+      <c r="H45" s="216" t="s">
+        <v>122</v>
       </c>
       <c r="I45" s="76">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="J45" s="77">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="K45" s="78"/>
+      <c r="K45" s="222" t="s">
+        <v>123</v>
+      </c>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
     </row>
-    <row r="46" spans="1:13" ht="152.25">
+    <row r="46" spans="1:13" ht="183">
       <c r="A46" s="23" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="C46" s="83">
         <v>0.25</v>
@@ -5402,7 +6348,7 @@
         <v>6</v>
       </c>
       <c r="E46" s="85" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="F46" s="86">
         <v>0.25</v>
@@ -5411,26 +6357,28 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="H46" s="217" t="s">
-        <v>112</v>
+      <c r="H46" s="216" t="s">
+        <v>127</v>
       </c>
       <c r="I46" s="76">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="J46" s="77">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="K46" s="78"/>
+      <c r="K46" s="222" t="s">
+        <v>128</v>
+      </c>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
     </row>
     <row r="47" spans="1:13" ht="76.5">
       <c r="A47" s="23" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="C47" s="83">
         <v>1</v>
@@ -5446,11 +6394,11 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="H47" s="216" t="s">
-        <v>115</v>
+      <c r="H47" s="215" t="s">
+        <v>131</v>
       </c>
       <c r="I47" s="76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" s="77">
         <f t="shared" si="5"/>
@@ -5462,10 +6410,10 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="13" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C48" s="83">
         <v>1</v>
@@ -5483,7 +6431,7 @@
       </c>
       <c r="H48" s="88"/>
       <c r="I48" s="76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" s="77">
         <f t="shared" si="5"/>
@@ -5494,10 +6442,10 @@
       <c r="M48" s="5"/>
     </row>
     <row r="49" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A49" s="225" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" s="226"/>
+      <c r="A49" s="230" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="231"/>
       <c r="C49" s="71">
         <f>SUMPRODUCT(C40:C48,D40:D48)</f>
         <v>30.5</v>
@@ -5518,7 +6466,7 @@
       <c r="H49" s="52"/>
       <c r="I49" s="53">
         <f>SUMPRODUCT(I40:I48,J40:J48)</f>
-        <v>0</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="J49" s="54">
         <f>SUM(J40:J48)</f>
@@ -5533,34 +6481,34 @@
       <c r="Q49" s="44"/>
     </row>
     <row r="50" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A50" s="230" t="s">
-        <v>118</v>
-      </c>
-      <c r="B50" s="230"/>
-      <c r="C50" s="223" t="s">
+      <c r="A50" s="235" t="s">
+        <v>134</v>
+      </c>
+      <c r="B50" s="235"/>
+      <c r="C50" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="D50" s="224"/>
+      <c r="D50" s="229"/>
       <c r="E50" s="46"/>
-      <c r="F50" s="223" t="s">
+      <c r="F50" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="G50" s="224"/>
+      <c r="G50" s="229"/>
       <c r="H50" s="46"/>
-      <c r="I50" s="223" t="s">
+      <c r="I50" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="J50" s="224"/>
+      <c r="J50" s="229"/>
       <c r="K50" s="46"/>
       <c r="L50" s="8"/>
       <c r="M50" s="4"/>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="29" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C51" s="79">
         <v>1</v>
@@ -5577,7 +6525,7 @@
       </c>
       <c r="H51" s="28"/>
       <c r="I51" s="73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" s="74">
         <v>2</v>
@@ -5588,10 +6536,10 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="23" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="C52" s="83">
         <v>1</v>
@@ -5608,21 +6556,23 @@
       </c>
       <c r="H52" s="88"/>
       <c r="I52" s="76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" s="77">
         <v>2</v>
       </c>
-      <c r="K52" s="78"/>
+      <c r="K52" s="78" t="s">
+        <v>139</v>
+      </c>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
     </row>
     <row r="53" spans="1:17" ht="30.75">
       <c r="A53" s="23" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="C53" s="83">
         <v>1</v>
@@ -5638,10 +6588,10 @@
         <v>1</v>
       </c>
       <c r="H53" s="88" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="I53" s="76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" s="77">
         <v>1</v>
@@ -5652,10 +6602,10 @@
     </row>
     <row r="54" spans="1:17" ht="60.75">
       <c r="A54" s="23" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="C54" s="83">
         <v>1</v>
@@ -5671,10 +6621,10 @@
         <v>4</v>
       </c>
       <c r="H54" s="88" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="I54" s="76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" s="77">
         <v>4</v>
@@ -5685,10 +6635,10 @@
     </row>
     <row r="55" spans="1:17" ht="30.75">
       <c r="A55" s="23" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C55" s="83">
         <v>1</v>
@@ -5704,10 +6654,10 @@
         <v>2</v>
       </c>
       <c r="H55" s="88" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="I55" s="76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" s="77">
         <v>2</v>
@@ -5717,10 +6667,10 @@
       <c r="M55" s="5"/>
     </row>
     <row r="56" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A56" s="225" t="s">
-        <v>25</v>
-      </c>
-      <c r="B56" s="226"/>
+      <c r="A56" s="230" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" s="231"/>
       <c r="C56" s="57">
         <f>SUMPRODUCT(C51:C55,D51:D55)</f>
         <v>11</v>
@@ -5741,7 +6691,7 @@
       <c r="H56" s="62"/>
       <c r="I56" s="53">
         <f>SUMPRODUCT(I51:I55,J51:J55)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J56" s="54">
         <f>SUM(J51:J55)</f>
@@ -5752,27 +6702,27 @@
       <c r="M56" s="56"/>
     </row>
     <row r="57" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A57" s="227" t="s">
+      <c r="A57" s="232" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="228"/>
-      <c r="C57" s="228"/>
-      <c r="D57" s="228"/>
-      <c r="E57" s="228"/>
-      <c r="F57" s="228"/>
-      <c r="G57" s="228"/>
-      <c r="H57" s="228"/>
-      <c r="I57" s="228"/>
-      <c r="J57" s="228"/>
-      <c r="K57" s="229"/>
+      <c r="B57" s="233"/>
+      <c r="C57" s="233"/>
+      <c r="D57" s="233"/>
+      <c r="E57" s="233"/>
+      <c r="F57" s="233"/>
+      <c r="G57" s="233"/>
+      <c r="H57" s="233"/>
+      <c r="I57" s="233"/>
+      <c r="J57" s="233"/>
+      <c r="K57" s="234"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
     </row>
     <row r="58" spans="1:17">
-      <c r="A58" s="231" t="s">
-        <v>132</v>
-      </c>
-      <c r="B58" s="232"/>
+      <c r="A58" s="236" t="s">
+        <v>149</v>
+      </c>
+      <c r="B58" s="237"/>
       <c r="C58" s="34">
         <f>C11+C18+C22+C27+C32+C38+C49+C56</f>
         <v>67.75</v>
@@ -5791,9 +6741,9 @@
         <v>100</v>
       </c>
       <c r="H58" s="28"/>
-      <c r="I58" s="208">
+      <c r="I58" s="207">
         <f>I11+I18+I22+I27+I32+I38+I49+I56</f>
-        <v>0</v>
+        <v>82.05</v>
       </c>
       <c r="J58" s="32">
         <f>J11+J18+J22+J27+J32+J38+J49+J56</f>
@@ -5804,28 +6754,28 @@
       <c r="M58" s="5"/>
     </row>
     <row r="59" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A59" s="233" t="s">
-        <v>133</v>
-      </c>
-      <c r="B59" s="234"/>
-      <c r="C59" s="235">
+      <c r="A59" s="238" t="s">
+        <v>150</v>
+      </c>
+      <c r="B59" s="239"/>
+      <c r="C59" s="240">
         <f>C58/D58</f>
         <v>0.67749999999999999</v>
       </c>
-      <c r="D59" s="236"/>
-      <c r="E59" s="237"/>
-      <c r="F59" s="238">
+      <c r="D59" s="241"/>
+      <c r="E59" s="242"/>
+      <c r="F59" s="243">
         <f>F58/G58</f>
         <v>0.6915</v>
       </c>
-      <c r="G59" s="239"/>
-      <c r="H59" s="240"/>
-      <c r="I59" s="241">
+      <c r="G59" s="244"/>
+      <c r="H59" s="245"/>
+      <c r="I59" s="246">
         <f>I58/J58</f>
-        <v>0</v>
-      </c>
-      <c r="J59" s="242"/>
-      <c r="K59" s="243"/>
+        <v>0.82050000000000001</v>
+      </c>
+      <c r="J59" s="247"/>
+      <c r="K59" s="248"/>
       <c r="L59" s="72"/>
       <c r="M59" s="72"/>
     </row>
@@ -5903,8 +6853,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -5919,15 +6869,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18.75">
-      <c r="A2" s="264" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="264"/>
-      <c r="C2" s="264"/>
-      <c r="D2" s="264"/>
-      <c r="E2" s="264"/>
-      <c r="F2" s="264"/>
-      <c r="G2" s="264"/>
+      <c r="A2" s="269" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="269"/>
+      <c r="C2" s="269"/>
+      <c r="D2" s="269"/>
+      <c r="E2" s="269"/>
+      <c r="F2" s="269"/>
+      <c r="G2" s="269"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="38"/>
@@ -5940,7 +6890,7 @@
     </row>
     <row r="4" spans="1:7" ht="18.75">
       <c r="A4" s="36" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -5951,752 +6901,780 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1"/>
     <row r="6" spans="1:7" ht="23.25">
-      <c r="A6" s="268" t="s">
+      <c r="A6" s="273" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="269"/>
-      <c r="C6" s="269"/>
-      <c r="D6" s="269"/>
-      <c r="E6" s="269"/>
-      <c r="F6" s="269"/>
-      <c r="G6" s="270"/>
+      <c r="B6" s="274"/>
+      <c r="C6" s="274"/>
+      <c r="D6" s="274"/>
+      <c r="E6" s="274"/>
+      <c r="F6" s="274"/>
+      <c r="G6" s="275"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="127" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" s="128" t="s">
+      <c r="A7" s="126" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="128" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7" s="128" t="s">
+      <c r="C7" s="127" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="128" t="s">
-        <v>138</v>
-      </c>
-      <c r="F7" s="128" t="s">
+      <c r="E7" s="127" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="129" t="s">
+      <c r="G7" s="128" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="130" t="s">
-        <v>139</v>
-      </c>
-      <c r="B8" s="131">
+      <c r="A8" s="129" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" s="130">
         <v>1</v>
       </c>
-      <c r="C8" s="131">
+      <c r="C8" s="130">
         <v>0.75</v>
       </c>
-      <c r="D8" s="131">
+      <c r="D8" s="130">
         <v>5</v>
       </c>
-      <c r="E8" s="131">
+      <c r="E8" s="130">
         <f t="shared" ref="E8:E14" si="0">B8*C8*D8</f>
         <v>3.75</v>
       </c>
-      <c r="F8" s="131" t="s">
-        <v>140</v>
-      </c>
-      <c r="G8" s="132"/>
+      <c r="F8" s="130" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" s="131"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="133" t="s">
-        <v>141</v>
-      </c>
-      <c r="B9" s="134">
+      <c r="A9" s="132" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="133">
         <v>0.8</v>
       </c>
-      <c r="C9" s="134">
+      <c r="C9" s="133">
         <v>0.5</v>
       </c>
-      <c r="D9" s="134">
+      <c r="D9" s="133">
         <v>15</v>
       </c>
-      <c r="E9" s="134">
+      <c r="E9" s="133">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F9" s="134" t="s">
-        <v>140</v>
-      </c>
-      <c r="G9" s="135" t="s">
-        <v>142</v>
+      <c r="F9" s="133" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="134" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="130" t="s">
-        <v>143</v>
-      </c>
-      <c r="B10" s="131">
+      <c r="A10" s="129" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="130">
         <v>1</v>
       </c>
-      <c r="C10" s="131">
+      <c r="C10" s="130">
         <v>0.75</v>
       </c>
-      <c r="D10" s="131">
+      <c r="D10" s="130">
         <v>10</v>
       </c>
-      <c r="E10" s="131">
+      <c r="E10" s="130">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="F10" s="131" t="s">
-        <v>140</v>
-      </c>
-      <c r="G10" s="132"/>
+      <c r="F10" s="130" t="s">
+        <v>157</v>
+      </c>
+      <c r="G10" s="131"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="133" t="s">
-        <v>144</v>
-      </c>
-      <c r="B11" s="134">
+      <c r="A11" s="132" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="133">
         <v>1</v>
       </c>
-      <c r="C11" s="134">
+      <c r="C11" s="133">
         <v>0.75</v>
       </c>
-      <c r="D11" s="134">
+      <c r="D11" s="133">
         <v>15</v>
       </c>
-      <c r="E11" s="134">
+      <c r="E11" s="133">
         <f t="shared" si="0"/>
         <v>11.25</v>
       </c>
-      <c r="F11" s="134" t="s">
-        <v>140</v>
-      </c>
-      <c r="G11" s="135"/>
+      <c r="F11" s="133" t="s">
+        <v>157</v>
+      </c>
+      <c r="G11" s="134"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="130" t="s">
-        <v>145</v>
-      </c>
-      <c r="B12" s="131">
+      <c r="A12" s="129" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="130">
         <v>0.8</v>
       </c>
-      <c r="C12" s="131">
+      <c r="C12" s="130">
         <v>0.75</v>
       </c>
-      <c r="D12" s="131">
+      <c r="D12" s="130">
         <v>25</v>
       </c>
-      <c r="E12" s="131">
+      <c r="E12" s="130">
         <f t="shared" si="0"/>
         <v>15.000000000000002</v>
       </c>
-      <c r="F12" s="210" t="s">
-        <v>140</v>
-      </c>
-      <c r="G12" s="132" t="s">
-        <v>146</v>
+      <c r="F12" s="209" t="s">
+        <v>157</v>
+      </c>
+      <c r="G12" s="131" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="130" t="s">
-        <v>147</v>
-      </c>
-      <c r="B13" s="131">
+      <c r="A13" s="129" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="130">
         <v>1</v>
       </c>
-      <c r="C13" s="131">
+      <c r="C13" s="130">
         <v>0.75</v>
       </c>
-      <c r="D13" s="131">
+      <c r="D13" s="130">
         <v>15</v>
       </c>
-      <c r="E13" s="131">
+      <c r="E13" s="130">
         <f t="shared" ref="E13" si="1">B13*C13*D13</f>
         <v>11.25</v>
       </c>
-      <c r="F13" s="210" t="s">
-        <v>140</v>
-      </c>
-      <c r="G13" s="132"/>
+      <c r="F13" s="209" t="s">
+        <v>157</v>
+      </c>
+      <c r="G13" s="131"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="133" t="s">
-        <v>148</v>
-      </c>
-      <c r="B14" s="134">
+      <c r="A14" s="132" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" s="133">
         <v>0.9</v>
       </c>
-      <c r="C14" s="134">
+      <c r="C14" s="133">
         <v>0.75</v>
       </c>
-      <c r="D14" s="134">
+      <c r="D14" s="133">
         <v>15</v>
       </c>
-      <c r="E14" s="134">
+      <c r="E14" s="133">
         <f t="shared" si="0"/>
         <v>10.125</v>
       </c>
-      <c r="F14" s="134" t="s">
-        <v>140</v>
-      </c>
-      <c r="G14" s="135" t="s">
-        <v>149</v>
+      <c r="F14" s="133" t="s">
+        <v>157</v>
+      </c>
+      <c r="G14" s="134" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="136" t="s">
-        <v>150</v>
-      </c>
-      <c r="B15" s="271"/>
-      <c r="C15" s="271"/>
-      <c r="D15" s="137">
+      <c r="A15" s="135" t="s">
+        <v>167</v>
+      </c>
+      <c r="B15" s="276"/>
+      <c r="C15" s="276"/>
+      <c r="D15" s="136">
         <f>SUM(D8:D14)</f>
         <v>100</v>
       </c>
-      <c r="E15" s="138">
+      <c r="E15" s="137">
         <f>(SUM(E8:E14)+E17+E18)/D15</f>
         <v>0.64875000000000005</v>
       </c>
-      <c r="F15" s="138"/>
-      <c r="G15" s="139" t="s">
-        <v>151</v>
+      <c r="F15" s="137"/>
+      <c r="G15" s="138" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="140" t="s">
-        <v>152</v>
-      </c>
-      <c r="B16" s="141" t="s">
+      <c r="A16" s="139" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="141"/>
-      <c r="D16" s="141" t="s">
+      <c r="C16" s="140"/>
+      <c r="D16" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="142" t="s">
-        <v>138</v>
-      </c>
-      <c r="F16" s="142"/>
-      <c r="G16" s="143" t="s">
+      <c r="E16" s="141" t="s">
+        <v>155</v>
+      </c>
+      <c r="F16" s="141"/>
+      <c r="G16" s="142" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="144" t="s">
-        <v>153</v>
-      </c>
-      <c r="B17" s="145"/>
-      <c r="C17" s="145"/>
-      <c r="D17" s="146">
+      <c r="A17" s="143" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" s="144"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="145">
         <v>-10</v>
       </c>
-      <c r="E17" s="145">
+      <c r="E17" s="144">
         <f>B17*D17</f>
         <v>0</v>
       </c>
-      <c r="F17" s="145"/>
-      <c r="G17" s="147"/>
+      <c r="F17" s="144"/>
+      <c r="G17" s="146"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="148" t="s">
-        <v>154</v>
-      </c>
-      <c r="B18" s="149"/>
-      <c r="C18" s="149"/>
-      <c r="D18" s="150">
+      <c r="A18" s="147" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" s="148"/>
+      <c r="C18" s="148"/>
+      <c r="D18" s="149">
         <v>-15</v>
       </c>
-      <c r="E18" s="149">
+      <c r="E18" s="148">
         <f>B18*D18</f>
         <v>0</v>
       </c>
-      <c r="F18" s="149"/>
-      <c r="G18" s="151"/>
+      <c r="F18" s="148"/>
+      <c r="G18" s="150"/>
     </row>
     <row r="19" spans="1:7" ht="23.25">
-      <c r="A19" s="272" t="s">
+      <c r="A19" s="277" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="273"/>
-      <c r="C19" s="273"/>
-      <c r="D19" s="273"/>
-      <c r="E19" s="273"/>
-      <c r="F19" s="273"/>
-      <c r="G19" s="274"/>
+      <c r="B19" s="278"/>
+      <c r="C19" s="278"/>
+      <c r="D19" s="278"/>
+      <c r="E19" s="278"/>
+      <c r="F19" s="278"/>
+      <c r="G19" s="279"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="152" t="s">
-        <v>136</v>
-      </c>
-      <c r="B20" s="153" t="s">
+      <c r="A20" s="151" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="153" t="s">
-        <v>137</v>
-      </c>
-      <c r="D20" s="153" t="s">
+      <c r="C20" s="152" t="s">
+        <v>154</v>
+      </c>
+      <c r="D20" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="153" t="s">
-        <v>138</v>
-      </c>
-      <c r="F20" s="214" t="s">
+      <c r="E20" s="152" t="s">
+        <v>155</v>
+      </c>
+      <c r="F20" s="213" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="213" t="s">
+      <c r="G20" s="212" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="154" t="s">
-        <v>155</v>
-      </c>
-      <c r="B21" s="155">
+      <c r="A21" s="153" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="154">
         <v>1</v>
       </c>
-      <c r="C21" s="155">
+      <c r="C21" s="154">
         <v>1</v>
       </c>
-      <c r="D21" s="155">
+      <c r="D21" s="154">
         <v>20</v>
       </c>
-      <c r="E21" s="155">
+      <c r="E21" s="154">
         <f>B21*C21*D21</f>
         <v>20</v>
       </c>
-      <c r="F21" s="155" t="s">
-        <v>140</v>
-      </c>
-      <c r="G21" s="215"/>
+      <c r="F21" s="154" t="s">
+        <v>157</v>
+      </c>
+      <c r="G21" s="214"/>
     </row>
     <row r="22" spans="1:7" ht="45.75">
-      <c r="A22" s="157" t="s">
-        <v>156</v>
-      </c>
-      <c r="B22" s="158">
+      <c r="A22" s="156" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22" s="157">
         <v>0.8</v>
       </c>
-      <c r="C22" s="158">
+      <c r="C22" s="157">
         <v>1</v>
       </c>
-      <c r="D22" s="158">
+      <c r="D22" s="157">
         <v>15</v>
       </c>
-      <c r="E22" s="158">
+      <c r="E22" s="157">
         <f t="shared" ref="E22:E26" si="2">B22*C22*D22</f>
         <v>12</v>
       </c>
-      <c r="F22" s="158" t="s">
-        <v>140</v>
-      </c>
-      <c r="G22" s="211" t="s">
+      <c r="F22" s="157" t="s">
         <v>157</v>
       </c>
+      <c r="G22" s="210" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="154" t="s">
-        <v>158</v>
-      </c>
-      <c r="B23" s="155">
+      <c r="A23" s="153" t="s">
+        <v>175</v>
+      </c>
+      <c r="B23" s="154">
         <v>1</v>
       </c>
-      <c r="C23" s="155">
+      <c r="C23" s="154">
         <v>0.95</v>
       </c>
-      <c r="D23" s="155">
+      <c r="D23" s="154">
         <v>15</v>
       </c>
-      <c r="E23" s="155">
+      <c r="E23" s="154">
         <f t="shared" si="2"/>
         <v>14.25</v>
       </c>
-      <c r="F23" s="155" t="s">
-        <v>140</v>
-      </c>
-      <c r="G23" s="221" t="s">
-        <v>159</v>
+      <c r="F23" s="154" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23" s="220" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="157" t="s">
-        <v>160</v>
-      </c>
-      <c r="B24" s="158">
+      <c r="A24" s="156" t="s">
+        <v>177</v>
+      </c>
+      <c r="B24" s="157">
         <v>0.85</v>
       </c>
-      <c r="C24" s="158">
+      <c r="C24" s="157">
         <v>0.95</v>
       </c>
-      <c r="D24" s="158">
+      <c r="D24" s="157">
         <v>25</v>
       </c>
-      <c r="E24" s="158">
+      <c r="E24" s="157">
         <f t="shared" ref="E24" si="3">B24*C24*D24</f>
         <v>20.1875</v>
       </c>
-      <c r="F24" s="158" t="s">
-        <v>140</v>
-      </c>
-      <c r="G24" s="211" t="s">
-        <v>161</v>
+      <c r="F24" s="157" t="s">
+        <v>157</v>
+      </c>
+      <c r="G24" s="210" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="155" t="s">
-        <v>162</v>
-      </c>
-      <c r="B25" s="155">
+      <c r="A25" s="154" t="s">
+        <v>179</v>
+      </c>
+      <c r="B25" s="154">
         <v>1</v>
       </c>
-      <c r="C25" s="155">
+      <c r="C25" s="154">
         <v>1</v>
       </c>
-      <c r="D25" s="155">
+      <c r="D25" s="154">
         <v>10</v>
       </c>
-      <c r="E25" s="155">
+      <c r="E25" s="154">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F25" s="155" t="s">
-        <v>140</v>
-      </c>
-      <c r="G25" s="156"/>
+      <c r="F25" s="154" t="s">
+        <v>157</v>
+      </c>
+      <c r="G25" s="155"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="158" t="s">
-        <v>163</v>
-      </c>
-      <c r="B26" s="158">
+      <c r="A26" s="157" t="s">
+        <v>180</v>
+      </c>
+      <c r="B26" s="157">
         <v>0.95</v>
       </c>
-      <c r="C26" s="158">
+      <c r="C26" s="157">
         <v>1</v>
       </c>
-      <c r="D26" s="158">
+      <c r="D26" s="157">
         <v>15</v>
       </c>
-      <c r="E26" s="158">
+      <c r="E26" s="157">
         <f t="shared" si="2"/>
         <v>14.25</v>
       </c>
-      <c r="F26" s="158" t="s">
-        <v>140</v>
-      </c>
-      <c r="G26" s="211" t="s">
-        <v>164</v>
+      <c r="F26" s="157" t="s">
+        <v>157</v>
+      </c>
+      <c r="G26" s="210" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="159" t="s">
-        <v>150</v>
-      </c>
-      <c r="B27" s="160"/>
-      <c r="C27" s="160"/>
-      <c r="D27" s="160">
+      <c r="A27" s="158" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" s="159"/>
+      <c r="C27" s="159"/>
+      <c r="D27" s="159">
         <f>SUM(D21:D26)</f>
         <v>100</v>
       </c>
-      <c r="E27" s="161">
+      <c r="E27" s="160">
         <f>(SUM(E21:E26) + E29+E30+E31)/D27</f>
         <v>0.90687499999999999</v>
       </c>
-      <c r="F27" s="161"/>
-      <c r="G27" s="162"/>
+      <c r="F27" s="160"/>
+      <c r="G27" s="161"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="163" t="s">
-        <v>152</v>
-      </c>
-      <c r="B28" s="164" t="s">
+      <c r="A28" s="162" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="164"/>
-      <c r="D28" s="164" t="s">
+      <c r="C28" s="163"/>
+      <c r="D28" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="165" t="s">
-        <v>138</v>
-      </c>
-      <c r="F28" s="165"/>
-      <c r="G28" s="166" t="s">
+      <c r="E28" s="164" t="s">
+        <v>155</v>
+      </c>
+      <c r="F28" s="164"/>
+      <c r="G28" s="165" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="167" t="s">
-        <v>153</v>
-      </c>
-      <c r="B29" s="168">
+      <c r="A29" s="166" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" s="167">
         <v>0</v>
       </c>
-      <c r="C29" s="168"/>
-      <c r="D29" s="169">
+      <c r="C29" s="167"/>
+      <c r="D29" s="168">
         <v>-10</v>
       </c>
-      <c r="E29" s="168">
+      <c r="E29" s="167">
         <f>B29*D29</f>
         <v>0</v>
       </c>
-      <c r="F29" s="168"/>
-      <c r="G29" s="170"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="169"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="171" t="s">
-        <v>165</v>
-      </c>
-      <c r="B30" s="172">
+      <c r="A30" s="170" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30" s="171">
         <v>0</v>
       </c>
-      <c r="C30" s="172"/>
-      <c r="D30" s="173">
+      <c r="C30" s="171"/>
+      <c r="D30" s="172">
         <v>-15</v>
       </c>
-      <c r="E30" s="172">
+      <c r="E30" s="171">
         <f>B30*D30</f>
         <v>0</v>
       </c>
-      <c r="F30" s="172"/>
-      <c r="G30" s="174"/>
+      <c r="F30" s="171"/>
+      <c r="G30" s="173"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="175" t="s">
-        <v>166</v>
-      </c>
-      <c r="B31" s="176">
+      <c r="A31" s="174" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" s="175">
         <v>0</v>
       </c>
-      <c r="C31" s="176"/>
-      <c r="D31" s="177">
+      <c r="C31" s="175"/>
+      <c r="D31" s="176">
         <v>-5</v>
       </c>
-      <c r="E31" s="176">
+      <c r="E31" s="175">
         <f>B31*D31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="176"/>
-      <c r="G31" s="178"/>
+      <c r="F31" s="175"/>
+      <c r="G31" s="177"/>
     </row>
     <row r="32" spans="1:7" ht="23.25">
-      <c r="A32" s="265" t="s">
+      <c r="A32" s="270" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="266"/>
-      <c r="C32" s="266"/>
-      <c r="D32" s="266"/>
-      <c r="E32" s="266"/>
-      <c r="F32" s="266"/>
-      <c r="G32" s="267"/>
+      <c r="B32" s="271"/>
+      <c r="C32" s="271"/>
+      <c r="D32" s="271"/>
+      <c r="E32" s="271"/>
+      <c r="F32" s="271"/>
+      <c r="G32" s="272"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="179" t="s">
-        <v>136</v>
-      </c>
-      <c r="B33" s="180" t="s">
+      <c r="A33" s="178" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" s="179" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="180" t="s">
-        <v>137</v>
-      </c>
-      <c r="D33" s="180" t="s">
+      <c r="C33" s="179" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" s="179" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="180" t="s">
-        <v>138</v>
-      </c>
-      <c r="F33" s="180" t="s">
+      <c r="E33" s="179" t="s">
+        <v>155</v>
+      </c>
+      <c r="F33" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="181" t="s">
+      <c r="G33" s="180" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="182" t="s">
+      <c r="A34" s="181" t="s">
+        <v>184</v>
+      </c>
+      <c r="B34" s="182">
+        <v>1</v>
+      </c>
+      <c r="C34" s="182">
+        <v>1</v>
+      </c>
+      <c r="D34" s="182">
+        <v>15</v>
+      </c>
+      <c r="E34" s="182">
+        <f t="shared" ref="E34:E39" si="4">B34*C34*D34</f>
+        <v>15</v>
+      </c>
+      <c r="F34" s="182"/>
+      <c r="G34" s="211"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="184" t="s">
+        <v>185</v>
+      </c>
+      <c r="B35" s="185">
+        <v>1</v>
+      </c>
+      <c r="C35" s="185">
+        <v>1</v>
+      </c>
+      <c r="D35" s="185">
+        <v>20</v>
+      </c>
+      <c r="E35" s="185">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="F35" s="185"/>
+      <c r="G35" s="186"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="181" t="s">
+        <v>186</v>
+      </c>
+      <c r="B36" s="182">
+        <v>0.9</v>
+      </c>
+      <c r="C36" s="182">
+        <v>1</v>
+      </c>
+      <c r="D36" s="182">
+        <v>15</v>
+      </c>
+      <c r="E36" s="182">
+        <f t="shared" si="4"/>
+        <v>13.5</v>
+      </c>
+      <c r="F36" s="182"/>
+      <c r="G36" s="183"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="184" t="s">
+        <v>187</v>
+      </c>
+      <c r="B37" s="185">
+        <v>1</v>
+      </c>
+      <c r="C37" s="185">
+        <v>0.75</v>
+      </c>
+      <c r="D37" s="185">
+        <v>20</v>
+      </c>
+      <c r="E37" s="185">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="F37" s="185"/>
+      <c r="G37" s="186" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="181" t="s">
+        <v>189</v>
+      </c>
+      <c r="B38" s="182">
+        <v>1</v>
+      </c>
+      <c r="C38" s="182">
+        <v>0.75</v>
+      </c>
+      <c r="D38" s="182">
+        <v>15</v>
+      </c>
+      <c r="E38" s="182">
+        <f t="shared" si="4"/>
+        <v>11.25</v>
+      </c>
+      <c r="F38" s="182"/>
+      <c r="G38" s="183" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="184" t="s">
+        <v>191</v>
+      </c>
+      <c r="B39" s="185">
+        <v>1</v>
+      </c>
+      <c r="C39" s="185">
+        <v>1</v>
+      </c>
+      <c r="D39" s="185">
+        <v>15</v>
+      </c>
+      <c r="E39" s="185">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="F39" s="185"/>
+      <c r="G39" s="186"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="187" t="s">
         <v>167</v>
       </c>
-      <c r="B34" s="183"/>
-      <c r="C34" s="183"/>
-      <c r="D34" s="183">
-        <v>15</v>
-      </c>
-      <c r="E34" s="183">
-        <f t="shared" ref="E34:E39" si="4">B34*C34*D34</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="183"/>
-      <c r="G34" s="212"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="185" t="s">
-        <v>168</v>
-      </c>
-      <c r="B35" s="186"/>
-      <c r="C35" s="186"/>
-      <c r="D35" s="186">
-        <v>20</v>
-      </c>
-      <c r="E35" s="186">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="186"/>
-      <c r="G35" s="187"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="182" t="s">
-        <v>169</v>
-      </c>
-      <c r="B36" s="183"/>
-      <c r="C36" s="183"/>
-      <c r="D36" s="183">
-        <v>15</v>
-      </c>
-      <c r="E36" s="183">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="183"/>
-      <c r="G36" s="184"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="185" t="s">
-        <v>170</v>
-      </c>
-      <c r="B37" s="186"/>
-      <c r="C37" s="186"/>
-      <c r="D37" s="186">
-        <v>20</v>
-      </c>
-      <c r="E37" s="186">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="186"/>
-      <c r="G37" s="187"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="182" t="s">
-        <v>171</v>
-      </c>
-      <c r="B38" s="183"/>
-      <c r="C38" s="183"/>
-      <c r="D38" s="183">
-        <v>15</v>
-      </c>
-      <c r="E38" s="183">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="183"/>
-      <c r="G38" s="184"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="185" t="s">
-        <v>172</v>
-      </c>
-      <c r="B39" s="186"/>
-      <c r="C39" s="186"/>
-      <c r="D39" s="186">
-        <v>15</v>
-      </c>
-      <c r="E39" s="186">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="186"/>
-      <c r="G39" s="187"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="188" t="s">
-        <v>150</v>
-      </c>
-      <c r="B40" s="189"/>
-      <c r="C40" s="189"/>
-      <c r="D40" s="189">
+      <c r="B40" s="188"/>
+      <c r="C40" s="188"/>
+      <c r="D40" s="188">
         <f>SUM(D34:D39)</f>
         <v>100</v>
       </c>
-      <c r="E40" s="190">
+      <c r="E40" s="189">
         <f>(SUM(E34:E39) +E42+E43+E44)/D40</f>
+        <v>0.89749999999999996</v>
+      </c>
+      <c r="F40" s="189"/>
+      <c r="G40" s="190"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="191" t="s">
+        <v>169</v>
+      </c>
+      <c r="B41" s="192" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="192"/>
+      <c r="D41" s="192" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="193" t="s">
+        <v>155</v>
+      </c>
+      <c r="F41" s="193"/>
+      <c r="G41" s="194" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="195" t="s">
+        <v>170</v>
+      </c>
+      <c r="B42" s="196">
         <v>0</v>
       </c>
-      <c r="F40" s="190"/>
-      <c r="G40" s="191"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="192" t="s">
-        <v>152</v>
-      </c>
-      <c r="B41" s="193" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="193"/>
-      <c r="D41" s="193" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" s="194" t="s">
-        <v>138</v>
-      </c>
-      <c r="F41" s="194"/>
-      <c r="G41" s="195" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="196" t="s">
-        <v>153</v>
-      </c>
-      <c r="B42" s="197">
-        <v>0</v>
-      </c>
-      <c r="C42" s="197"/>
-      <c r="D42" s="198">
+      <c r="C42" s="196"/>
+      <c r="D42" s="197">
         <v>-10</v>
       </c>
-      <c r="E42" s="197">
+      <c r="E42" s="196">
         <f>B42*D42</f>
         <v>0</v>
       </c>
-      <c r="F42" s="197"/>
-      <c r="G42" s="199"/>
+      <c r="F42" s="196"/>
+      <c r="G42" s="198"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="200" t="s">
-        <v>173</v>
-      </c>
-      <c r="B43" s="201">
+      <c r="A43" s="199" t="s">
+        <v>192</v>
+      </c>
+      <c r="B43" s="200">
         <v>0</v>
       </c>
-      <c r="C43" s="201"/>
-      <c r="D43" s="202">
+      <c r="C43" s="200"/>
+      <c r="D43" s="201">
         <v>-15</v>
       </c>
-      <c r="E43" s="201">
+      <c r="E43" s="200">
         <f>B43*D43</f>
         <v>0</v>
       </c>
-      <c r="F43" s="201"/>
-      <c r="G43" s="203"/>
+      <c r="F43" s="200"/>
+      <c r="G43" s="202"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="204" t="s">
-        <v>166</v>
-      </c>
-      <c r="B44" s="205">
+      <c r="A44" s="203" t="s">
+        <v>183</v>
+      </c>
+      <c r="B44" s="204">
         <v>0</v>
       </c>
-      <c r="C44" s="205"/>
-      <c r="D44" s="206">
+      <c r="C44" s="204"/>
+      <c r="D44" s="205">
         <v>-5</v>
       </c>
-      <c r="E44" s="205">
+      <c r="E44" s="204">
         <f>B44*D44</f>
         <v>0</v>
       </c>
-      <c r="F44" s="205"/>
-      <c r="G44" s="207"/>
+      <c r="F44" s="204"/>
+      <c r="G44" s="206"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6721,6 +7699,107 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F638FE-CC68-49C0-85D7-58DC1EDE8BB0}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="78.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="227" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="227" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="227" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" s="227">
+        <f>SUM(B2:B8)</f>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="227" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" s="227">
+        <f>100+B9</f>
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
